--- a/Analisis/Epicas.xlsx
+++ b/Analisis/Epicas.xlsx
@@ -12,10 +12,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Epicas" sheetId="1" r:id="rId1"/>
+    <sheet name="HU" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Epica_No">Hoja1!$B$1</definedName>
+    <definedName name="Epica_No">Epicas!$A$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>Como</t>
   </si>
@@ -35,20 +36,56 @@
     <t>Para</t>
   </si>
   <si>
-    <t xml:space="preserve">Epica No </t>
-  </si>
-  <si>
     <t>Epica No</t>
   </si>
   <si>
-    <t>f</t>
+    <t>NOMBRE:</t>
+  </si>
+  <si>
+    <t>Taquillero</t>
+  </si>
+  <si>
+    <t>Quiero</t>
+  </si>
+  <si>
+    <t>Administrar la boleteria en taquilla de CineColombia</t>
+  </si>
+  <si>
+    <t>Administrar la venta de boletos fidicos en CineColombia</t>
+  </si>
+  <si>
+    <t>Mantener el control, facilitar la venta y disponibilidad de asientos en las salas de cine.</t>
+  </si>
+  <si>
+    <t>Administrar la boleteria virtual de CineColombia</t>
+  </si>
+  <si>
+    <t>Comprador Web</t>
+  </si>
+  <si>
+    <t>Adquirir la compra de boletas virtuales en CineColombia</t>
+  </si>
+  <si>
+    <t>Facilitar la adquisicion de boletas e cine en cualquier momento con fin de entretenimiento.</t>
+  </si>
+  <si>
+    <t>Administrador de sistema</t>
+  </si>
+  <si>
+    <t>Gestionar las mebresías de CineColombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestionar clientes con membresía </t>
+  </si>
+  <si>
+    <t>Facilitar la personalización de la experiencia de los clientes que adquieren una membresía</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,8 +116,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -93,8 +137,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -165,15 +215,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -186,87 +227,95 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -549,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:AH49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,381 +610,635 @@
     <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="20">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="29">
         <f xml:space="preserve"> ROW(A1)</f>
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="30"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="24"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="28"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="24"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="27"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="14"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="14"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="14"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="14"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="17"/>
-      <c r="K10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+    </row>
+    <row r="15" spans="1:34" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="22"/>
+      <c r="AD15" s="22"/>
+      <c r="AE15" s="22"/>
+      <c r="AF15" s="22"/>
+      <c r="AG15" s="22"/>
+      <c r="AH15" s="22"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="20">
-        <f>(Epica_No+1)</f>
+      <c r="B18" s="25">
         <v>2</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="26"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="28"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="24"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="27"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="B22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="14"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="14"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="14"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="14"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="17"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="B26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="20">
+      <c r="B35" s="25">
         <v>3</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="26"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="28"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="18"/>
+      <c r="C37" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="9"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="10"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="24"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="27"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="B39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="13"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="11"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="14"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="14"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="14"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="14"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="17"/>
+      <c r="B43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="15"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="15"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="15"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="15"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="16"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A25:I26"/>
-    <mergeCell ref="A27:I32"/>
-    <mergeCell ref="A16:I21"/>
+  <mergeCells count="30">
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:I42"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="B43:I49"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:I36"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="C37:I38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:I40"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B1:I2"/>
+    <mergeCell ref="B18:I19"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:I4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:I8"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="B9:I15"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:I6"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A3:I4"/>
-    <mergeCell ref="A5:I10"/>
-    <mergeCell ref="A14:I15"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:I21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:I23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:I25"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="B26:I32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Analisis/Epicas.xlsx
+++ b/Analisis/Epicas.xlsx
@@ -1,96 +1,109 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28122"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\FilmReserve\Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{092F3CE0-9D1C-4ED3-BA6D-B6E4139DFBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Epicas" sheetId="1" r:id="rId1"/>
     <sheet name="HU" sheetId="2" r:id="rId2"/>
     <sheet name="CA" sheetId="3" r:id="rId3"/>
+    <sheet name="GR" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="Epica_No">Epicas!$A$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="178">
+  <si>
+    <t>Epica No</t>
+  </si>
+  <si>
+    <t>NOMBRE:</t>
+  </si>
+  <si>
+    <t>Administrar la boleteria en taquilla de CineCol</t>
+  </si>
   <si>
     <t>Como</t>
   </si>
   <si>
+    <t>Taquillero</t>
+  </si>
+  <si>
+    <t>Quiero</t>
+  </si>
+  <si>
+    <t>Administrar la venta de boletos fisicos en CineCol</t>
+  </si>
+  <si>
     <t>Para</t>
   </si>
   <si>
-    <t>Epica No</t>
-  </si>
-  <si>
-    <t>NOMBRE:</t>
-  </si>
-  <si>
-    <t>Taquillero</t>
-  </si>
-  <si>
-    <t>Quiero</t>
-  </si>
-  <si>
     <t>Mantener el control, facilitar la venta y disponibilidad de asientos en las salas de cine.</t>
   </si>
   <si>
+    <t>Administrar la boleteria virtual de CineCol</t>
+  </si>
+  <si>
     <t>Comprador Web</t>
   </si>
   <si>
+    <t>Adquirir la compra de boletas virtuales en CineCol</t>
+  </si>
+  <si>
+    <t>Facilitar la adquisicion de boletas de cine en cualquier momento con fin de entretenimiento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestionar clientes con membresía </t>
+  </si>
+  <si>
     <t>Administrador de sistema</t>
   </si>
   <si>
-    <t xml:space="preserve">Gestionar clientes con membresía </t>
+    <t>Gestionar las mebresías de CineCol</t>
   </si>
   <si>
     <t>Facilitar la personalización de la experiencia de los clientes que adquieren una membresía</t>
   </si>
   <si>
-    <t>Facilitar la adquisicion de boletas de cine en cualquier momento con fin de entretenimiento.</t>
-  </si>
-  <si>
-    <t>Administrar la boleteria en taquilla de CineCol</t>
-  </si>
-  <si>
-    <t>Administrar la venta de boletos fisicos en CineCol</t>
-  </si>
-  <si>
-    <t>Administrar la boleteria virtual de CineCol</t>
-  </si>
-  <si>
-    <t>Adquirir la compra de boletas virtuales en CineCol</t>
-  </si>
-  <si>
-    <t>Gestionar las mebresías de CineCol</t>
+    <t>HU No</t>
+  </si>
+  <si>
+    <t>1.1</t>
   </si>
   <si>
     <t>Rol</t>
   </si>
   <si>
-    <t>HU No</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
     <t>Consultar disponibilidad de asientos</t>
   </si>
   <si>
@@ -196,16 +209,19 @@
     <t>Dado</t>
   </si>
   <si>
+    <t xml:space="preserve">Que el taquillero esta en el sistema de gestion de asientos </t>
+  </si>
+  <si>
     <t>Cuando</t>
   </si>
   <si>
+    <t>Seleccione una funcion especifica (pelicula)</t>
+  </si>
+  <si>
     <t>Entonces</t>
   </si>
   <si>
-    <t xml:space="preserve">Que el taquillero esta en el sistema de gestion de asientos </t>
-  </si>
-  <si>
-    <t>Seleccione una funcion especifica (pelicula)</t>
+    <t>El sistema debe mostrar la disponibilidad de sientos en esa sala, indicando cuales estan libres cuales estan ocupados.</t>
   </si>
   <si>
     <t>1.1 - CA 2</t>
@@ -223,9 +239,6 @@
     <t>El sistema debe actualizar en tiempo real el estado de los asientos.</t>
   </si>
   <si>
-    <t>El sistema debe mostrar la disponibilidad de sientos en esa sala, indicando cuales estan libres cuales estan ocupados.</t>
-  </si>
-  <si>
     <t>1.2 - CA 1</t>
   </si>
   <si>
@@ -280,22 +293,22 @@
     <t>Que el asiento sea comprado exitosamente</t>
   </si>
   <si>
+    <t>El taquillero confirme la compra</t>
+  </si>
+  <si>
+    <t>El sistema debe generar la informacion del ticket con los detalles del asiento y la funcion.</t>
+  </si>
+  <si>
+    <t>1.3 - CA 1</t>
+  </si>
+  <si>
+    <t>Confirmacion de cambio de asiento</t>
+  </si>
+  <si>
+    <t>Que el cliente quier cambiar su asiento</t>
+  </si>
+  <si>
     <t>El taquillero seleccione un nuevo asiento</t>
-  </si>
-  <si>
-    <t>El taquillero confirme la compra</t>
-  </si>
-  <si>
-    <t>El sistema debe generar la informacion del ticket con los detalles del asiento y la funcion.</t>
-  </si>
-  <si>
-    <t>1.3 - CA 1</t>
-  </si>
-  <si>
-    <t>Confirmacion de cambio de asiento</t>
-  </si>
-  <si>
-    <t>Que el cliente quier cambiar su asiento</t>
   </si>
   <si>
     <t>El sistema debe confirmar el cambio y mostrar la nueva asignacion del cliente.</t>
@@ -378,14 +391,61 @@
     <t>3.2 - CA 1</t>
   </si>
   <si>
+    <t>Aplicación de descuentos</t>
+  </si>
+  <si>
+    <t>Que soy un usuario que ha comprado o renovado la membresía</t>
+  </si>
+  <si>
+    <t>Se establece un descuento activo para la membresía</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sistema deberá aplicar automáticamente el descuento en el precio final antes de proceder con el pago
+</t>
+  </si>
+  <si>
+    <t>3.2 - CA 2</t>
+  </si>
+  <si>
+    <t>Periodos de vigencia</t>
+  </si>
+  <si>
+    <t>Que soy el administrador del sistema y haya configurado un descuento para la membresía</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Establezco el periodo de vigencia del descuento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sistema deberá validar las fechas y alertas si el descuento está próximo a expirar
+</t>
+  </si>
+  <si>
+    <t>3.2 - CA 3</t>
+  </si>
+  <si>
+    <t>Gestión de descuentos</t>
+  </si>
+  <si>
+    <t>Que el sistema cuenta con un plan de membresías</t>
+  </si>
+  <si>
+    <t>Se establece un descuento para la adquisición o renovación de membresía</t>
+  </si>
+  <si>
+    <t>Se creará un porcentaje o monto fijo de descuento aplicable a la membresía</t>
+  </si>
+  <si>
+    <t>3.2 - CA 4</t>
+  </si>
+  <si>
     <t>Aplicación de descuentos en compras</t>
-  </si>
-  <si>
-    <t>Realizo una compra de boletos que tienen beneficios exclusivos asociados a mi plan</t>
   </si>
   <si>
     <t xml:space="preserve">Que soy un usuario con una membresía activa
 </t>
+  </si>
+  <si>
+    <t>Realizo una compra de boletos que tienen beneficios exclusivos asociados a mi plan</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -393,57 +453,13 @@
 </t>
   </si>
   <si>
-    <t>3.2 - CA 2</t>
-  </si>
-  <si>
-    <t>3.2 - CA 4</t>
-  </si>
-  <si>
-    <t>Aplicación de descuentos</t>
-  </si>
-  <si>
-    <t>Que soy un usuario que ha comprado o renovado la membresía</t>
-  </si>
-  <si>
-    <t>Se establece un descuento activo para la membresía</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El sistema deberá aplicar automáticamente el descuento en el precio final antes de proceder con el pago
-</t>
-  </si>
-  <si>
-    <t>Periodos de vigencia</t>
-  </si>
-  <si>
-    <t>Que soy el administrador del sistema y haya configurado un descuento para la membresía</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Establezco el periodo de vigencia del descuento </t>
-  </si>
-  <si>
-    <t xml:space="preserve">El sistema deberá validar las fechas y alertas si el descuento está próximo a expirar
-</t>
-  </si>
-  <si>
-    <t>3.2 - CA 3</t>
-  </si>
-  <si>
-    <t>Gestión de descuentos</t>
-  </si>
-  <si>
-    <t>Que el sistema cuenta con un plan de membresías</t>
-  </si>
-  <si>
-    <t>Se establece un descuento para la adquisición o renovación de membresía</t>
-  </si>
-  <si>
-    <t>Se creará un porcentaje o monto fijo de descuento aplicable a la membresía</t>
-  </si>
-  <si>
     <t>3.3 - CA 1</t>
   </si>
   <si>
     <t>Consultar estado de membresía</t>
+  </si>
+  <si>
+    <t>Que soy un usuario con una membresía activa o inactiva</t>
   </si>
   <si>
     <t>Accedo a mi perfil</t>
@@ -454,9 +470,6 @@
 </t>
   </si>
   <si>
-    <t>Que soy un usuario con una membresía activa o inactiva</t>
-  </si>
-  <si>
     <t>3.3 - CA 2</t>
   </si>
   <si>
@@ -540,13 +553,55 @@
     <t xml:space="preserve">
 El sistema mostrara una confirmación de pago y activara inmediatamente la membresía 
 </t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>GESTION DE RIESGOS INTERNOS AL PROYECTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> INTERNOS AL PROYECTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falta de personal con la suficiente experiencia para desempeñarse eficientemente en sus labores </t>
+  </si>
+  <si>
+    <t>Difucultad para desempeñar las responsabilidades adquiridas por insuficiencia de tiempo</t>
+  </si>
+  <si>
+    <t>DEPENDENCIA DE OTROS PROYECTOS</t>
+  </si>
+  <si>
+    <t>En caso de que la pasarela de pago no esté disponible, el cliente no podrá realizar el pago.</t>
+  </si>
+  <si>
+    <t>Interrupciones en el servicio de proveedores de contenido</t>
+  </si>
+  <si>
+    <t>EVENTOS DE LA ORGANIZACIÓN</t>
+  </si>
+  <si>
+    <t>El cine aumenta la cantidad de asientos en una sala sin notificar el cambio a tiempo.</t>
+  </si>
+  <si>
+    <t>El cine experimenta bajas ventas y carece de presupuesto para cubrir los costos operativos.</t>
+  </si>
+  <si>
+    <t>EVENTOS DEL ENTORNO</t>
+  </si>
+  <si>
+    <t>Saliendo de la universidad al equipo de desarrollo se les hurte el equipo</t>
+  </si>
+  <si>
+    <t>Retraso en el proyecto debido a problemas de salud del equipo de desarrollo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -582,6 +637,20 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -688,20 +757,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -710,7 +779,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -761,7 +830,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -791,7 +860,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -811,6 +880,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1091,22 +1175,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH49"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34">
       <c r="A1" s="32" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="26">
         <f xml:space="preserve"> ROW(A1)</f>
@@ -1120,7 +1204,7 @@
       <c r="H1" s="26"/>
       <c r="I1" s="27"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34">
       <c r="A2" s="33"/>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -1131,13 +1215,13 @@
       <c r="H2" s="28"/>
       <c r="I2" s="29"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34">
       <c r="A3" s="11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="15" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
@@ -1146,7 +1230,7 @@
       <c r="H3" s="16"/>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34">
       <c r="A4" s="13"/>
       <c r="B4" s="14"/>
       <c r="C4" s="18"/>
@@ -1157,9 +1241,9 @@
       <c r="H4" s="18"/>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34">
       <c r="A5" s="20" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>4</v>
@@ -1172,7 +1256,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="22"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34">
       <c r="A6" s="21"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -1183,12 +1267,12 @@
       <c r="H6" s="10"/>
       <c r="I6" s="23"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34">
       <c r="A7" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -1198,7 +1282,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="22"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34">
       <c r="A8" s="21"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -1209,12 +1293,12 @@
       <c r="H8" s="10"/>
       <c r="I8" s="23"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34">
       <c r="A9" s="5" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -1224,7 +1308,7 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34">
       <c r="A10" s="6"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -1235,7 +1319,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34">
       <c r="A11" s="6"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1246,7 +1330,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34">
       <c r="A12" s="6"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -1257,7 +1341,7 @@
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34">
       <c r="A13" s="6"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -1268,7 +1352,7 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34">
       <c r="A14" s="6"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -1279,7 +1363,7 @@
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
     </row>
-    <row r="15" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" s="1" customFormat="1">
       <c r="A15" s="7"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -1289,35 +1373,35 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
-      <c r="AC15" s="2"/>
-      <c r="AD15" s="2"/>
-      <c r="AE15" s="2"/>
-      <c r="AF15" s="2"/>
-      <c r="AG15" s="2"/>
-      <c r="AH15" s="2"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15"/>
+      <c r="AG15"/>
+      <c r="AH15"/>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="24" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B18" s="30">
         <v>2</v>
@@ -1330,7 +1414,7 @@
       <c r="H18" s="30"/>
       <c r="I18" s="31"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="25"/>
       <c r="B19" s="28"/>
       <c r="C19" s="28"/>
@@ -1341,13 +1425,13 @@
       <c r="H19" s="28"/>
       <c r="I19" s="29"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
@@ -1356,7 +1440,7 @@
       <c r="H20" s="16"/>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="13"/>
       <c r="B21" s="14"/>
       <c r="C21" s="18"/>
@@ -1367,12 +1451,12 @@
       <c r="H21" s="18"/>
       <c r="I21" s="19"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="20" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -1382,7 +1466,7 @@
       <c r="H22" s="8"/>
       <c r="I22" s="22"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="21"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -1393,12 +1477,12 @@
       <c r="H23" s="10"/>
       <c r="I23" s="23"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -1408,7 +1492,7 @@
       <c r="H24" s="8"/>
       <c r="I24" s="22"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="21"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -1419,12 +1503,12 @@
       <c r="H25" s="10"/>
       <c r="I25" s="23"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="5" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -1434,7 +1518,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="6"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -1445,7 +1529,7 @@
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="6"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -1456,7 +1540,7 @@
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="6"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -1467,7 +1551,7 @@
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="6"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -1478,7 +1562,7 @@
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="6"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -1489,7 +1573,7 @@
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="7"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -1500,9 +1584,9 @@
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="24" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B35" s="30">
         <v>3</v>
@@ -1515,7 +1599,7 @@
       <c r="H35" s="30"/>
       <c r="I35" s="31"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="25"/>
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
@@ -1526,13 +1610,13 @@
       <c r="H36" s="28"/>
       <c r="I36" s="29"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="15" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
@@ -1541,7 +1625,7 @@
       <c r="H37" s="16"/>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="13"/>
       <c r="B38" s="14"/>
       <c r="C38" s="18"/>
@@ -1552,12 +1636,12 @@
       <c r="H38" s="18"/>
       <c r="I38" s="19"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="20" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -1567,7 +1651,7 @@
       <c r="H39" s="8"/>
       <c r="I39" s="22"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="21"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -1578,12 +1662,12 @@
       <c r="H40" s="10"/>
       <c r="I40" s="23"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
@@ -1593,7 +1677,7 @@
       <c r="H41" s="8"/>
       <c r="I41" s="22"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="21"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -1604,12 +1688,12 @@
       <c r="H42" s="10"/>
       <c r="I42" s="23"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="5" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -1619,7 +1703,7 @@
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="6"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -1630,7 +1714,7 @@
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="6"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -1641,7 +1725,7 @@
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="6"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -1652,7 +1736,7 @@
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="6"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -1663,7 +1747,7 @@
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" s="6"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -1674,7 +1758,7 @@
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="7"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -1724,21 +1808,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I163"/>
   <sheetViews>
     <sheetView topLeftCell="A151" workbookViewId="0">
       <selection activeCell="A151" sqref="A151:I163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>19</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
@@ -1748,7 +1832,7 @@
       <c r="H1" s="26"/>
       <c r="I1" s="27"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="33"/>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -1759,9 +1843,9 @@
       <c r="H2" s="28"/>
       <c r="I2" s="29"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>4</v>
@@ -1774,7 +1858,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="22"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="21"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -1785,7 +1869,7 @@
       <c r="H4" s="10"/>
       <c r="I4" s="23"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="20" t="s">
         <v>5</v>
       </c>
@@ -1800,7 +1884,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="22"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="21"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -1811,9 +1895,9 @@
       <c r="H6" s="10"/>
       <c r="I6" s="23"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>21</v>
@@ -1826,7 +1910,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="6"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -1837,7 +1921,7 @@
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="6"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -1848,7 +1932,7 @@
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="6"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -1859,7 +1943,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="6"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1870,7 +1954,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="6"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -1881,7 +1965,7 @@
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="7"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -1892,9 +1976,9 @@
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="26" t="s">
         <v>22</v>
@@ -1907,7 +1991,7 @@
       <c r="H16" s="26"/>
       <c r="I16" s="27"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="33"/>
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
@@ -1918,9 +2002,9 @@
       <c r="H17" s="28"/>
       <c r="I17" s="29"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>4</v>
@@ -1933,7 +2017,7 @@
       <c r="H18" s="8"/>
       <c r="I18" s="22"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="21"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -1944,7 +2028,7 @@
       <c r="H19" s="10"/>
       <c r="I19" s="23"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="20" t="s">
         <v>5</v>
       </c>
@@ -1959,7 +2043,7 @@
       <c r="H20" s="8"/>
       <c r="I20" s="22"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="21"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -1970,9 +2054,9 @@
       <c r="H21" s="10"/>
       <c r="I21" s="23"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="5" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>24</v>
@@ -1985,7 +2069,7 @@
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="6"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -1996,7 +2080,7 @@
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="6"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -2007,7 +2091,7 @@
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="6"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -2018,7 +2102,7 @@
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="6"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -2029,7 +2113,7 @@
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="6"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -2040,7 +2124,7 @@
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="7"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -2051,9 +2135,9 @@
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31" s="26" t="s">
         <v>25</v>
@@ -2066,7 +2150,7 @@
       <c r="H31" s="26"/>
       <c r="I31" s="27"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="33"/>
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
@@ -2077,9 +2161,9 @@
       <c r="H32" s="28"/>
       <c r="I32" s="29"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>4</v>
@@ -2092,7 +2176,7 @@
       <c r="H33" s="8"/>
       <c r="I33" s="22"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="21"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -2103,7 +2187,7 @@
       <c r="H34" s="10"/>
       <c r="I34" s="23"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="20" t="s">
         <v>5</v>
       </c>
@@ -2118,7 +2202,7 @@
       <c r="H35" s="8"/>
       <c r="I35" s="22"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="21"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -2129,9 +2213,9 @@
       <c r="H36" s="10"/>
       <c r="I36" s="23"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="5" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>27</v>
@@ -2144,7 +2228,7 @@
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="6"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -2155,7 +2239,7 @@
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="6"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -2166,7 +2250,7 @@
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="6"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -2177,7 +2261,7 @@
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="6"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -2188,7 +2272,7 @@
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="6"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -2199,7 +2283,7 @@
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="7"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -2210,9 +2294,9 @@
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B46" s="26" t="s">
         <v>28</v>
@@ -2225,7 +2309,7 @@
       <c r="H46" s="26"/>
       <c r="I46" s="27"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="33"/>
       <c r="B47" s="28"/>
       <c r="C47" s="28"/>
@@ -2236,12 +2320,12 @@
       <c r="H47" s="28"/>
       <c r="I47" s="29"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" s="20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -2251,7 +2335,7 @@
       <c r="H48" s="8"/>
       <c r="I48" s="22"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="21"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -2262,7 +2346,7 @@
       <c r="H49" s="10"/>
       <c r="I49" s="23"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="20" t="s">
         <v>5</v>
       </c>
@@ -2277,7 +2361,7 @@
       <c r="H50" s="8"/>
       <c r="I50" s="22"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" s="21"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -2288,9 +2372,9 @@
       <c r="H51" s="10"/>
       <c r="I51" s="23"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="5" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>30</v>
@@ -2303,7 +2387,7 @@
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" s="6"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -2314,7 +2398,7 @@
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" s="6"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -2325,7 +2409,7 @@
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" s="6"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -2336,7 +2420,7 @@
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" s="6"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -2347,7 +2431,7 @@
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" s="6"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -2358,7 +2442,7 @@
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" s="7"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -2369,9 +2453,9 @@
       <c r="H58" s="10"/>
       <c r="I58" s="10"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B61" s="26" t="s">
         <v>31</v>
@@ -2384,7 +2468,7 @@
       <c r="H61" s="26"/>
       <c r="I61" s="27"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" s="33"/>
       <c r="B62" s="28"/>
       <c r="C62" s="28"/>
@@ -2395,12 +2479,12 @@
       <c r="H62" s="28"/>
       <c r="I62" s="29"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" s="20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -2410,7 +2494,7 @@
       <c r="H63" s="8"/>
       <c r="I63" s="22"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" s="21"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -2421,7 +2505,7 @@
       <c r="H64" s="10"/>
       <c r="I64" s="23"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" s="20" t="s">
         <v>5</v>
       </c>
@@ -2436,7 +2520,7 @@
       <c r="H65" s="8"/>
       <c r="I65" s="22"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" s="21"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -2447,9 +2531,9 @@
       <c r="H66" s="10"/>
       <c r="I66" s="23"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" s="5" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>32</v>
@@ -2462,7 +2546,7 @@
       <c r="H67" s="8"/>
       <c r="I67" s="8"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" s="6"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
@@ -2473,7 +2557,7 @@
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" s="6"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
@@ -2484,7 +2568,7 @@
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" s="6"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -2495,7 +2579,7 @@
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" s="6"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -2506,7 +2590,7 @@
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" s="6"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
@@ -2517,7 +2601,7 @@
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" s="7"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -2528,9 +2612,9 @@
       <c r="H73" s="10"/>
       <c r="I73" s="10"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B76" s="26" t="s">
         <v>33</v>
@@ -2543,7 +2627,7 @@
       <c r="H76" s="26"/>
       <c r="I76" s="27"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" s="33"/>
       <c r="B77" s="28"/>
       <c r="C77" s="28"/>
@@ -2554,12 +2638,12 @@
       <c r="H77" s="28"/>
       <c r="I77" s="29"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" s="20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
@@ -2569,7 +2653,7 @@
       <c r="H78" s="8"/>
       <c r="I78" s="22"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" s="21"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -2580,7 +2664,7 @@
       <c r="H79" s="10"/>
       <c r="I79" s="23"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" s="20" t="s">
         <v>5</v>
       </c>
@@ -2595,7 +2679,7 @@
       <c r="H80" s="8"/>
       <c r="I80" s="22"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9">
       <c r="A81" s="21"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -2606,9 +2690,9 @@
       <c r="H81" s="10"/>
       <c r="I81" s="23"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9">
       <c r="A82" s="5" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>35</v>
@@ -2621,7 +2705,7 @@
       <c r="H82" s="8"/>
       <c r="I82" s="8"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9">
       <c r="A83" s="6"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
@@ -2632,7 +2716,7 @@
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9">
       <c r="A84" s="6"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
@@ -2643,7 +2727,7 @@
       <c r="H84" s="9"/>
       <c r="I84" s="9"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9">
       <c r="A85" s="6"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
@@ -2654,7 +2738,7 @@
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9">
       <c r="A86" s="6"/>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
@@ -2665,7 +2749,7 @@
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9">
       <c r="A87" s="6"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
@@ -2676,7 +2760,7 @@
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9">
       <c r="A88" s="7"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -2687,9 +2771,9 @@
       <c r="H88" s="10"/>
       <c r="I88" s="10"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9">
       <c r="A91" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B91" s="26" t="s">
         <v>36</v>
@@ -2702,7 +2786,7 @@
       <c r="H91" s="26"/>
       <c r="I91" s="27"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9">
       <c r="A92" s="33"/>
       <c r="B92" s="28"/>
       <c r="C92" s="28"/>
@@ -2713,12 +2797,12 @@
       <c r="H92" s="28"/>
       <c r="I92" s="29"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9">
       <c r="A93" s="20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
@@ -2728,7 +2812,7 @@
       <c r="H93" s="8"/>
       <c r="I93" s="22"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9">
       <c r="A94" s="21"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -2739,7 +2823,7 @@
       <c r="H94" s="10"/>
       <c r="I94" s="23"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9">
       <c r="A95" s="20" t="s">
         <v>5</v>
       </c>
@@ -2754,7 +2838,7 @@
       <c r="H95" s="8"/>
       <c r="I95" s="22"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9">
       <c r="A96" s="21"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -2765,9 +2849,9 @@
       <c r="H96" s="10"/>
       <c r="I96" s="23"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9">
       <c r="A97" s="5" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>38</v>
@@ -2780,7 +2864,7 @@
       <c r="H97" s="8"/>
       <c r="I97" s="8"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9">
       <c r="A98" s="6"/>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
@@ -2791,7 +2875,7 @@
       <c r="H98" s="9"/>
       <c r="I98" s="9"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9">
       <c r="A99" s="6"/>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
@@ -2802,7 +2886,7 @@
       <c r="H99" s="9"/>
       <c r="I99" s="9"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9">
       <c r="A100" s="6"/>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
@@ -2813,7 +2897,7 @@
       <c r="H100" s="9"/>
       <c r="I100" s="9"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9">
       <c r="A101" s="6"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
@@ -2824,7 +2908,7 @@
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9">
       <c r="A102" s="6"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
@@ -2835,7 +2919,7 @@
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9">
       <c r="A103" s="7"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
@@ -2846,9 +2930,9 @@
       <c r="H103" s="10"/>
       <c r="I103" s="10"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9">
       <c r="A106" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B106" s="26" t="s">
         <v>39</v>
@@ -2861,7 +2945,7 @@
       <c r="H106" s="26"/>
       <c r="I106" s="27"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9">
       <c r="A107" s="33"/>
       <c r="B107" s="28"/>
       <c r="C107" s="28"/>
@@ -2872,9 +2956,9 @@
       <c r="H107" s="28"/>
       <c r="I107" s="29"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9">
       <c r="A108" s="20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B108" s="8" t="s">
         <v>40</v>
@@ -2887,7 +2971,7 @@
       <c r="H108" s="8"/>
       <c r="I108" s="22"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9">
       <c r="A109" s="21"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -2898,7 +2982,7 @@
       <c r="H109" s="10"/>
       <c r="I109" s="23"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9">
       <c r="A110" s="20" t="s">
         <v>5</v>
       </c>
@@ -2913,7 +2997,7 @@
       <c r="H110" s="8"/>
       <c r="I110" s="22"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9">
       <c r="A111" s="21"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
@@ -2924,9 +3008,9 @@
       <c r="H111" s="10"/>
       <c r="I111" s="23"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9">
       <c r="A112" s="5" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>42</v>
@@ -2939,7 +3023,7 @@
       <c r="H112" s="8"/>
       <c r="I112" s="8"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9">
       <c r="A113" s="6"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -2950,7 +3034,7 @@
       <c r="H113" s="9"/>
       <c r="I113" s="9"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9">
       <c r="A114" s="6"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
@@ -2961,7 +3045,7 @@
       <c r="H114" s="9"/>
       <c r="I114" s="9"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9">
       <c r="A115" s="6"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
@@ -2972,7 +3056,7 @@
       <c r="H115" s="9"/>
       <c r="I115" s="9"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9">
       <c r="A116" s="6"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
@@ -2983,7 +3067,7 @@
       <c r="H116" s="9"/>
       <c r="I116" s="9"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9">
       <c r="A117" s="6"/>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
@@ -2994,7 +3078,7 @@
       <c r="H117" s="9"/>
       <c r="I117" s="9"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9">
       <c r="A118" s="7"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
@@ -3005,9 +3089,9 @@
       <c r="H118" s="10"/>
       <c r="I118" s="10"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9">
       <c r="A121" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B121" s="26" t="s">
         <v>43</v>
@@ -3020,7 +3104,7 @@
       <c r="H121" s="26"/>
       <c r="I121" s="27"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9">
       <c r="A122" s="33"/>
       <c r="B122" s="28"/>
       <c r="C122" s="28"/>
@@ -3031,12 +3115,12 @@
       <c r="H122" s="28"/>
       <c r="I122" s="29"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9">
       <c r="A123" s="20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C123" s="8"/>
       <c r="D123" s="8"/>
@@ -3046,7 +3130,7 @@
       <c r="H123" s="8"/>
       <c r="I123" s="22"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9">
       <c r="A124" s="21"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
@@ -3057,7 +3141,7 @@
       <c r="H124" s="10"/>
       <c r="I124" s="23"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9">
       <c r="A125" s="20" t="s">
         <v>5</v>
       </c>
@@ -3072,7 +3156,7 @@
       <c r="H125" s="8"/>
       <c r="I125" s="22"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9">
       <c r="A126" s="21"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
@@ -3083,9 +3167,9 @@
       <c r="H126" s="10"/>
       <c r="I126" s="23"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9">
       <c r="A127" s="5" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B127" s="8" t="s">
         <v>45</v>
@@ -3098,7 +3182,7 @@
       <c r="H127" s="8"/>
       <c r="I127" s="8"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9">
       <c r="A128" s="6"/>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
@@ -3109,7 +3193,7 @@
       <c r="H128" s="9"/>
       <c r="I128" s="9"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9">
       <c r="A129" s="6"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
@@ -3120,7 +3204,7 @@
       <c r="H129" s="9"/>
       <c r="I129" s="9"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9">
       <c r="A130" s="6"/>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
@@ -3131,7 +3215,7 @@
       <c r="H130" s="9"/>
       <c r="I130" s="9"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9">
       <c r="A131" s="6"/>
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
@@ -3142,7 +3226,7 @@
       <c r="H131" s="9"/>
       <c r="I131" s="9"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9">
       <c r="A132" s="6"/>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
@@ -3153,7 +3237,7 @@
       <c r="H132" s="9"/>
       <c r="I132" s="9"/>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9">
       <c r="A133" s="7"/>
       <c r="B133" s="10"/>
       <c r="C133" s="10"/>
@@ -3164,9 +3248,9 @@
       <c r="H133" s="10"/>
       <c r="I133" s="10"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9">
       <c r="A136" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B136" s="26" t="s">
         <v>46</v>
@@ -3179,7 +3263,7 @@
       <c r="H136" s="26"/>
       <c r="I136" s="27"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9">
       <c r="A137" s="33"/>
       <c r="B137" s="28"/>
       <c r="C137" s="28"/>
@@ -3190,9 +3274,9 @@
       <c r="H137" s="28"/>
       <c r="I137" s="29"/>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9">
       <c r="A138" s="20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B138" s="8" t="s">
         <v>40</v>
@@ -3205,7 +3289,7 @@
       <c r="H138" s="8"/>
       <c r="I138" s="22"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9">
       <c r="A139" s="21"/>
       <c r="B139" s="10"/>
       <c r="C139" s="10"/>
@@ -3216,7 +3300,7 @@
       <c r="H139" s="10"/>
       <c r="I139" s="23"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9">
       <c r="A140" s="20" t="s">
         <v>5</v>
       </c>
@@ -3231,7 +3315,7 @@
       <c r="H140" s="8"/>
       <c r="I140" s="22"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9">
       <c r="A141" s="21"/>
       <c r="B141" s="10"/>
       <c r="C141" s="10"/>
@@ -3242,9 +3326,9 @@
       <c r="H141" s="10"/>
       <c r="I141" s="23"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9">
       <c r="A142" s="5" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B142" s="8" t="s">
         <v>48</v>
@@ -3257,7 +3341,7 @@
       <c r="H142" s="8"/>
       <c r="I142" s="8"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9">
       <c r="A143" s="6"/>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
@@ -3268,7 +3352,7 @@
       <c r="H143" s="9"/>
       <c r="I143" s="9"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9">
       <c r="A144" s="6"/>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
@@ -3279,7 +3363,7 @@
       <c r="H144" s="9"/>
       <c r="I144" s="9"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9">
       <c r="A145" s="6"/>
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
@@ -3290,7 +3374,7 @@
       <c r="H145" s="9"/>
       <c r="I145" s="9"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9">
       <c r="A146" s="6"/>
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
@@ -3301,7 +3385,7 @@
       <c r="H146" s="9"/>
       <c r="I146" s="9"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9">
       <c r="A147" s="6"/>
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
@@ -3312,7 +3396,7 @@
       <c r="H147" s="9"/>
       <c r="I147" s="9"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9">
       <c r="A148" s="7"/>
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
@@ -3323,9 +3407,9 @@
       <c r="H148" s="10"/>
       <c r="I148" s="10"/>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9">
       <c r="A151" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B151" s="26" t="s">
         <v>49</v>
@@ -3338,7 +3422,7 @@
       <c r="H151" s="26"/>
       <c r="I151" s="27"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9">
       <c r="A152" s="33"/>
       <c r="B152" s="28"/>
       <c r="C152" s="28"/>
@@ -3349,9 +3433,9 @@
       <c r="H152" s="28"/>
       <c r="I152" s="29"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9">
       <c r="A153" s="20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B153" s="8" t="s">
         <v>40</v>
@@ -3364,7 +3448,7 @@
       <c r="H153" s="8"/>
       <c r="I153" s="22"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9">
       <c r="A154" s="21"/>
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
@@ -3375,7 +3459,7 @@
       <c r="H154" s="10"/>
       <c r="I154" s="23"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9">
       <c r="A155" s="20" t="s">
         <v>5</v>
       </c>
@@ -3390,7 +3474,7 @@
       <c r="H155" s="8"/>
       <c r="I155" s="22"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9">
       <c r="A156" s="21"/>
       <c r="B156" s="10"/>
       <c r="C156" s="10"/>
@@ -3401,9 +3485,9 @@
       <c r="H156" s="10"/>
       <c r="I156" s="23"/>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9">
       <c r="A157" s="5" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B157" s="8" t="s">
         <v>51</v>
@@ -3416,7 +3500,7 @@
       <c r="H157" s="8"/>
       <c r="I157" s="8"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9">
       <c r="A158" s="6"/>
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
@@ -3427,7 +3511,7 @@
       <c r="H158" s="9"/>
       <c r="I158" s="9"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9">
       <c r="A159" s="6"/>
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
@@ -3438,7 +3522,7 @@
       <c r="H159" s="9"/>
       <c r="I159" s="9"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9">
       <c r="A160" s="6"/>
       <c r="B160" s="9"/>
       <c r="C160" s="9"/>
@@ -3449,7 +3533,7 @@
       <c r="H160" s="9"/>
       <c r="I160" s="9"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9">
       <c r="A161" s="6"/>
       <c r="B161" s="9"/>
       <c r="C161" s="9"/>
@@ -3460,7 +3544,7 @@
       <c r="H161" s="9"/>
       <c r="I161" s="9"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9">
       <c r="A162" s="6"/>
       <c r="B162" s="9"/>
       <c r="C162" s="9"/>
@@ -3471,7 +3555,7 @@
       <c r="H162" s="9"/>
       <c r="I162" s="9"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9">
       <c r="A163" s="7"/>
       <c r="B163" s="10"/>
       <c r="C163" s="10"/>
@@ -3578,18 +3662,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A353" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M365" sqref="M365"/>
+    <sheetView topLeftCell="A358" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J373" sqref="A358:J373"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="26" t="s">
         <v>52</v>
@@ -3602,7 +3686,7 @@
       <c r="H1" s="26"/>
       <c r="I1" s="27"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="33"/>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -3613,9 +3697,9 @@
       <c r="H2" s="28"/>
       <c r="I2" s="29"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="15" t="s">
@@ -3628,7 +3712,7 @@
       <c r="H3" s="16"/>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="13"/>
       <c r="B4" s="14"/>
       <c r="C4" s="18"/>
@@ -3639,12 +3723,12 @@
       <c r="H4" s="18"/>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="20" t="s">
         <v>54</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -3654,7 +3738,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="22"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="21"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -3665,12 +3749,12 @@
       <c r="H6" s="10"/>
       <c r="I6" s="23"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -3680,7 +3764,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="22"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="21"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -3691,12 +3775,12 @@
       <c r="H8" s="10"/>
       <c r="I8" s="23"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
@@ -3706,7 +3790,7 @@
       <c r="H9" s="34"/>
       <c r="I9" s="35"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="6"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -3717,7 +3801,7 @@
       <c r="H10" s="36"/>
       <c r="I10" s="37"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="6"/>
       <c r="B11" s="36"/>
       <c r="C11" s="36"/>
@@ -3728,7 +3812,7 @@
       <c r="H11" s="36"/>
       <c r="I11" s="37"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="6"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -3739,7 +3823,7 @@
       <c r="H12" s="36"/>
       <c r="I12" s="37"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="6"/>
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
@@ -3750,7 +3834,7 @@
       <c r="H13" s="36"/>
       <c r="I13" s="37"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="6"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -3761,7 +3845,7 @@
       <c r="H14" s="36"/>
       <c r="I14" s="37"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="7"/>
       <c r="B15" s="38"/>
       <c r="C15" s="38"/>
@@ -3772,12 +3856,12 @@
       <c r="H15" s="38"/>
       <c r="I15" s="39"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
@@ -3787,7 +3871,7 @@
       <c r="H18" s="26"/>
       <c r="I18" s="27"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="33"/>
       <c r="B19" s="28"/>
       <c r="C19" s="28"/>
@@ -3798,13 +3882,13 @@
       <c r="H19" s="28"/>
       <c r="I19" s="29"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
@@ -3813,7 +3897,7 @@
       <c r="H20" s="16"/>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="13"/>
       <c r="B21" s="14"/>
       <c r="C21" s="18"/>
@@ -3824,12 +3908,12 @@
       <c r="H21" s="18"/>
       <c r="I21" s="19"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="20" t="s">
         <v>54</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -3839,7 +3923,7 @@
       <c r="H22" s="8"/>
       <c r="I22" s="22"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="21"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -3850,12 +3934,12 @@
       <c r="H23" s="10"/>
       <c r="I23" s="23"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -3865,7 +3949,7 @@
       <c r="H24" s="8"/>
       <c r="I24" s="22"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="21"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -3876,12 +3960,12 @@
       <c r="H25" s="10"/>
       <c r="I25" s="23"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" s="34"/>
       <c r="D26" s="34"/>
@@ -3891,7 +3975,7 @@
       <c r="H26" s="34"/>
       <c r="I26" s="35"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="6"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -3902,7 +3986,7 @@
       <c r="H27" s="36"/>
       <c r="I27" s="37"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="6"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -3913,7 +3997,7 @@
       <c r="H28" s="36"/>
       <c r="I28" s="37"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="6"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -3924,7 +4008,7 @@
       <c r="H29" s="36"/>
       <c r="I29" s="37"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="6"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -3935,7 +4019,7 @@
       <c r="H30" s="36"/>
       <c r="I30" s="37"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="6"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
@@ -3946,7 +4030,7 @@
       <c r="H31" s="36"/>
       <c r="I31" s="37"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="7"/>
       <c r="B32" s="38"/>
       <c r="C32" s="38"/>
@@ -3957,9 +4041,9 @@
       <c r="H32" s="38"/>
       <c r="I32" s="39"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B35" s="26" t="s">
         <v>65</v>
@@ -3972,7 +4056,7 @@
       <c r="H35" s="26"/>
       <c r="I35" s="27"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="33"/>
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
@@ -3983,9 +4067,9 @@
       <c r="H36" s="28"/>
       <c r="I36" s="29"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="15" t="s">
@@ -3998,7 +4082,7 @@
       <c r="H37" s="16"/>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="13"/>
       <c r="B38" s="14"/>
       <c r="C38" s="18"/>
@@ -4009,7 +4093,7 @@
       <c r="H38" s="18"/>
       <c r="I38" s="19"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="20" t="s">
         <v>54</v>
       </c>
@@ -4024,7 +4108,7 @@
       <c r="H39" s="8"/>
       <c r="I39" s="22"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="21"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -4035,9 +4119,9 @@
       <c r="H40" s="10"/>
       <c r="I40" s="23"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>68</v>
@@ -4050,7 +4134,7 @@
       <c r="H41" s="8"/>
       <c r="I41" s="22"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="21"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -4061,9 +4145,9 @@
       <c r="H42" s="10"/>
       <c r="I42" s="23"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B43" s="34" t="s">
         <v>69</v>
@@ -4076,7 +4160,7 @@
       <c r="H43" s="34"/>
       <c r="I43" s="35"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="6"/>
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
@@ -4087,7 +4171,7 @@
       <c r="H44" s="36"/>
       <c r="I44" s="37"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="6"/>
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
@@ -4098,7 +4182,7 @@
       <c r="H45" s="36"/>
       <c r="I45" s="37"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="6"/>
       <c r="B46" s="36"/>
       <c r="C46" s="36"/>
@@ -4109,7 +4193,7 @@
       <c r="H46" s="36"/>
       <c r="I46" s="37"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="6"/>
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
@@ -4120,7 +4204,7 @@
       <c r="H47" s="36"/>
       <c r="I47" s="37"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" s="6"/>
       <c r="B48" s="36"/>
       <c r="C48" s="36"/>
@@ -4131,7 +4215,7 @@
       <c r="H48" s="36"/>
       <c r="I48" s="37"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="7"/>
       <c r="B49" s="38"/>
       <c r="C49" s="38"/>
@@ -4142,9 +4226,9 @@
       <c r="H49" s="38"/>
       <c r="I49" s="39"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B52" s="26" t="s">
         <v>70</v>
@@ -4157,7 +4241,7 @@
       <c r="H52" s="26"/>
       <c r="I52" s="27"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" s="33"/>
       <c r="B53" s="28"/>
       <c r="C53" s="28"/>
@@ -4168,9 +4252,9 @@
       <c r="H53" s="28"/>
       <c r="I53" s="29"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" s="11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B54" s="12"/>
       <c r="C54" s="15" t="s">
@@ -4183,7 +4267,7 @@
       <c r="H54" s="16"/>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" s="13"/>
       <c r="B55" s="14"/>
       <c r="C55" s="18"/>
@@ -4194,7 +4278,7 @@
       <c r="H55" s="18"/>
       <c r="I55" s="19"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" s="20" t="s">
         <v>54</v>
       </c>
@@ -4209,7 +4293,7 @@
       <c r="H56" s="8"/>
       <c r="I56" s="22"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" s="21"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -4220,9 +4304,9 @@
       <c r="H57" s="10"/>
       <c r="I57" s="23"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>73</v>
@@ -4235,7 +4319,7 @@
       <c r="H58" s="8"/>
       <c r="I58" s="22"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" s="21"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -4246,9 +4330,9 @@
       <c r="H59" s="10"/>
       <c r="I59" s="23"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B60" s="34" t="s">
         <v>74</v>
@@ -4261,7 +4345,7 @@
       <c r="H60" s="34"/>
       <c r="I60" s="35"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" s="6"/>
       <c r="B61" s="36"/>
       <c r="C61" s="36"/>
@@ -4272,7 +4356,7 @@
       <c r="H61" s="36"/>
       <c r="I61" s="37"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" s="6"/>
       <c r="B62" s="36"/>
       <c r="C62" s="36"/>
@@ -4283,7 +4367,7 @@
       <c r="H62" s="36"/>
       <c r="I62" s="37"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" s="6"/>
       <c r="B63" s="36"/>
       <c r="C63" s="36"/>
@@ -4294,7 +4378,7 @@
       <c r="H63" s="36"/>
       <c r="I63" s="37"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" s="6"/>
       <c r="B64" s="36"/>
       <c r="C64" s="36"/>
@@ -4305,7 +4389,7 @@
       <c r="H64" s="36"/>
       <c r="I64" s="37"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" s="6"/>
       <c r="B65" s="36"/>
       <c r="C65" s="36"/>
@@ -4316,7 +4400,7 @@
       <c r="H65" s="36"/>
       <c r="I65" s="37"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" s="7"/>
       <c r="B66" s="38"/>
       <c r="C66" s="38"/>
@@ -4327,9 +4411,9 @@
       <c r="H66" s="38"/>
       <c r="I66" s="39"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B69" s="26" t="s">
         <v>75</v>
@@ -4342,7 +4426,7 @@
       <c r="H69" s="26"/>
       <c r="I69" s="27"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" s="33"/>
       <c r="B70" s="28"/>
       <c r="C70" s="28"/>
@@ -4353,9 +4437,9 @@
       <c r="H70" s="28"/>
       <c r="I70" s="29"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" s="11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B71" s="12"/>
       <c r="C71" s="15" t="s">
@@ -4368,7 +4452,7 @@
       <c r="H71" s="16"/>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" s="13"/>
       <c r="B72" s="14"/>
       <c r="C72" s="18"/>
@@ -4379,7 +4463,7 @@
       <c r="H72" s="18"/>
       <c r="I72" s="19"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" s="20" t="s">
         <v>54</v>
       </c>
@@ -4394,7 +4478,7 @@
       <c r="H73" s="8"/>
       <c r="I73" s="22"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" s="21"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -4405,9 +4489,9 @@
       <c r="H74" s="10"/>
       <c r="I74" s="23"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>78</v>
@@ -4420,7 +4504,7 @@
       <c r="H75" s="8"/>
       <c r="I75" s="22"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" s="21"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -4431,9 +4515,9 @@
       <c r="H76" s="10"/>
       <c r="I76" s="23"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B77" s="34" t="s">
         <v>79</v>
@@ -4446,7 +4530,7 @@
       <c r="H77" s="34"/>
       <c r="I77" s="35"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" s="6"/>
       <c r="B78" s="36"/>
       <c r="C78" s="36"/>
@@ -4457,7 +4541,7 @@
       <c r="H78" s="36"/>
       <c r="I78" s="37"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" s="6"/>
       <c r="B79" s="36"/>
       <c r="C79" s="36"/>
@@ -4468,7 +4552,7 @@
       <c r="H79" s="36"/>
       <c r="I79" s="37"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" s="6"/>
       <c r="B80" s="36"/>
       <c r="C80" s="36"/>
@@ -4479,7 +4563,7 @@
       <c r="H80" s="36"/>
       <c r="I80" s="37"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9">
       <c r="A81" s="6"/>
       <c r="B81" s="36"/>
       <c r="C81" s="36"/>
@@ -4490,7 +4574,7 @@
       <c r="H81" s="36"/>
       <c r="I81" s="37"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9">
       <c r="A82" s="6"/>
       <c r="B82" s="36"/>
       <c r="C82" s="36"/>
@@ -4501,7 +4585,7 @@
       <c r="H82" s="36"/>
       <c r="I82" s="37"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9">
       <c r="A83" s="7"/>
       <c r="B83" s="38"/>
       <c r="C83" s="38"/>
@@ -4512,9 +4596,9 @@
       <c r="H83" s="38"/>
       <c r="I83" s="39"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9">
       <c r="A86" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B86" s="26" t="s">
         <v>80</v>
@@ -4527,7 +4611,7 @@
       <c r="H86" s="26"/>
       <c r="I86" s="27"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9">
       <c r="A87" s="33"/>
       <c r="B87" s="28"/>
       <c r="C87" s="28"/>
@@ -4538,9 +4622,9 @@
       <c r="H87" s="28"/>
       <c r="I87" s="29"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9">
       <c r="A88" s="11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B88" s="12"/>
       <c r="C88" s="15" t="s">
@@ -4553,7 +4637,7 @@
       <c r="H88" s="16"/>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9">
       <c r="A89" s="13"/>
       <c r="B89" s="14"/>
       <c r="C89" s="18"/>
@@ -4564,7 +4648,7 @@
       <c r="H89" s="18"/>
       <c r="I89" s="19"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9">
       <c r="A90" s="20" t="s">
         <v>54</v>
       </c>
@@ -4579,7 +4663,7 @@
       <c r="H90" s="8"/>
       <c r="I90" s="22"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9">
       <c r="A91" s="21"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -4590,12 +4674,12 @@
       <c r="H91" s="10"/>
       <c r="I91" s="23"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9">
       <c r="A92" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
@@ -4605,7 +4689,7 @@
       <c r="H92" s="8"/>
       <c r="I92" s="22"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9">
       <c r="A93" s="21"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
@@ -4616,12 +4700,12 @@
       <c r="H93" s="10"/>
       <c r="I93" s="23"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9">
       <c r="A94" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B94" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C94" s="34"/>
       <c r="D94" s="34"/>
@@ -4631,7 +4715,7 @@
       <c r="H94" s="34"/>
       <c r="I94" s="35"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9">
       <c r="A95" s="6"/>
       <c r="B95" s="36"/>
       <c r="C95" s="36"/>
@@ -4642,7 +4726,7 @@
       <c r="H95" s="36"/>
       <c r="I95" s="37"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9">
       <c r="A96" s="6"/>
       <c r="B96" s="36"/>
       <c r="C96" s="36"/>
@@ -4653,7 +4737,7 @@
       <c r="H96" s="36"/>
       <c r="I96" s="37"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9">
       <c r="A97" s="6"/>
       <c r="B97" s="36"/>
       <c r="C97" s="36"/>
@@ -4664,7 +4748,7 @@
       <c r="H97" s="36"/>
       <c r="I97" s="37"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9">
       <c r="A98" s="6"/>
       <c r="B98" s="36"/>
       <c r="C98" s="36"/>
@@ -4675,7 +4759,7 @@
       <c r="H98" s="36"/>
       <c r="I98" s="37"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9">
       <c r="A99" s="6"/>
       <c r="B99" s="36"/>
       <c r="C99" s="36"/>
@@ -4686,7 +4770,7 @@
       <c r="H99" s="36"/>
       <c r="I99" s="37"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9">
       <c r="A100" s="7"/>
       <c r="B100" s="38"/>
       <c r="C100" s="38"/>
@@ -4697,12 +4781,12 @@
       <c r="H100" s="38"/>
       <c r="I100" s="39"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9">
       <c r="A103" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B103" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C103" s="26"/>
       <c r="D103" s="26"/>
@@ -4712,7 +4796,7 @@
       <c r="H103" s="26"/>
       <c r="I103" s="27"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9">
       <c r="A104" s="33"/>
       <c r="B104" s="28"/>
       <c r="C104" s="28"/>
@@ -4723,13 +4807,13 @@
       <c r="H104" s="28"/>
       <c r="I104" s="29"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9">
       <c r="A105" s="11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B105" s="12"/>
       <c r="C105" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D105" s="16"/>
       <c r="E105" s="16"/>
@@ -4738,7 +4822,7 @@
       <c r="H105" s="16"/>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9">
       <c r="A106" s="13"/>
       <c r="B106" s="14"/>
       <c r="C106" s="18"/>
@@ -4749,12 +4833,12 @@
       <c r="H106" s="18"/>
       <c r="I106" s="19"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9">
       <c r="A107" s="20" t="s">
         <v>54</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
@@ -4764,7 +4848,7 @@
       <c r="H107" s="8"/>
       <c r="I107" s="22"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9">
       <c r="A108" s="21"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -4775,12 +4859,12 @@
       <c r="H108" s="10"/>
       <c r="I108" s="23"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9">
       <c r="A109" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
@@ -4790,7 +4874,7 @@
       <c r="H109" s="8"/>
       <c r="I109" s="22"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9">
       <c r="A110" s="21"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
@@ -4801,9 +4885,9 @@
       <c r="H110" s="10"/>
       <c r="I110" s="23"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9">
       <c r="A111" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B111" s="34" t="s">
         <v>89</v>
@@ -4816,7 +4900,7 @@
       <c r="H111" s="34"/>
       <c r="I111" s="35"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9">
       <c r="A112" s="6"/>
       <c r="B112" s="36"/>
       <c r="C112" s="36"/>
@@ -4827,7 +4911,7 @@
       <c r="H112" s="36"/>
       <c r="I112" s="37"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9">
       <c r="A113" s="6"/>
       <c r="B113" s="36"/>
       <c r="C113" s="36"/>
@@ -4838,7 +4922,7 @@
       <c r="H113" s="36"/>
       <c r="I113" s="37"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9">
       <c r="A114" s="6"/>
       <c r="B114" s="36"/>
       <c r="C114" s="36"/>
@@ -4849,7 +4933,7 @@
       <c r="H114" s="36"/>
       <c r="I114" s="37"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9">
       <c r="A115" s="6"/>
       <c r="B115" s="36"/>
       <c r="C115" s="36"/>
@@ -4860,7 +4944,7 @@
       <c r="H115" s="36"/>
       <c r="I115" s="37"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9">
       <c r="A116" s="6"/>
       <c r="B116" s="36"/>
       <c r="C116" s="36"/>
@@ -4871,7 +4955,7 @@
       <c r="H116" s="36"/>
       <c r="I116" s="37"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9">
       <c r="A117" s="7"/>
       <c r="B117" s="38"/>
       <c r="C117" s="38"/>
@@ -4882,9 +4966,9 @@
       <c r="H117" s="38"/>
       <c r="I117" s="39"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9">
       <c r="A120" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B120" s="26" t="s">
         <v>90</v>
@@ -4897,7 +4981,7 @@
       <c r="H120" s="26"/>
       <c r="I120" s="27"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9">
       <c r="A121" s="33"/>
       <c r="B121" s="28"/>
       <c r="C121" s="28"/>
@@ -4908,9 +4992,9 @@
       <c r="H121" s="28"/>
       <c r="I121" s="29"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9">
       <c r="A122" s="11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B122" s="12"/>
       <c r="C122" s="15" t="s">
@@ -4923,7 +5007,7 @@
       <c r="H122" s="16"/>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9">
       <c r="A123" s="13"/>
       <c r="B123" s="14"/>
       <c r="C123" s="18"/>
@@ -4934,7 +5018,7 @@
       <c r="H123" s="18"/>
       <c r="I123" s="19"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9">
       <c r="A124" s="20" t="s">
         <v>54</v>
       </c>
@@ -4949,7 +5033,7 @@
       <c r="H124" s="8"/>
       <c r="I124" s="22"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9">
       <c r="A125" s="21"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
@@ -4960,9 +5044,9 @@
       <c r="H125" s="10"/>
       <c r="I125" s="23"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9">
       <c r="A126" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B126" s="8" t="s">
         <v>93</v>
@@ -4975,7 +5059,7 @@
       <c r="H126" s="8"/>
       <c r="I126" s="22"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9">
       <c r="A127" s="21"/>
       <c r="B127" s="10"/>
       <c r="C127" s="10"/>
@@ -4986,9 +5070,9 @@
       <c r="H127" s="10"/>
       <c r="I127" s="23"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9">
       <c r="A128" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B128" s="34" t="s">
         <v>94</v>
@@ -5001,7 +5085,7 @@
       <c r="H128" s="34"/>
       <c r="I128" s="35"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9">
       <c r="A129" s="6"/>
       <c r="B129" s="36"/>
       <c r="C129" s="36"/>
@@ -5012,7 +5096,7 @@
       <c r="H129" s="36"/>
       <c r="I129" s="37"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9">
       <c r="A130" s="6"/>
       <c r="B130" s="36"/>
       <c r="C130" s="36"/>
@@ -5023,7 +5107,7 @@
       <c r="H130" s="36"/>
       <c r="I130" s="37"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9">
       <c r="A131" s="6"/>
       <c r="B131" s="36"/>
       <c r="C131" s="36"/>
@@ -5034,7 +5118,7 @@
       <c r="H131" s="36"/>
       <c r="I131" s="37"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9">
       <c r="A132" s="6"/>
       <c r="B132" s="36"/>
       <c r="C132" s="36"/>
@@ -5045,7 +5129,7 @@
       <c r="H132" s="36"/>
       <c r="I132" s="37"/>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9">
       <c r="A133" s="6"/>
       <c r="B133" s="36"/>
       <c r="C133" s="36"/>
@@ -5056,7 +5140,7 @@
       <c r="H133" s="36"/>
       <c r="I133" s="37"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9">
       <c r="A134" s="7"/>
       <c r="B134" s="38"/>
       <c r="C134" s="38"/>
@@ -5067,9 +5151,9 @@
       <c r="H134" s="38"/>
       <c r="I134" s="39"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9">
       <c r="A137" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B137" s="26" t="s">
         <v>95</v>
@@ -5082,7 +5166,7 @@
       <c r="H137" s="26"/>
       <c r="I137" s="27"/>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9">
       <c r="A138" s="33"/>
       <c r="B138" s="28"/>
       <c r="C138" s="28"/>
@@ -5093,9 +5177,9 @@
       <c r="H138" s="28"/>
       <c r="I138" s="29"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9">
       <c r="A139" s="11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B139" s="12"/>
       <c r="C139" s="15" t="s">
@@ -5108,7 +5192,7 @@
       <c r="H139" s="16"/>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9">
       <c r="A140" s="13"/>
       <c r="B140" s="14"/>
       <c r="C140" s="18"/>
@@ -5119,7 +5203,7 @@
       <c r="H140" s="18"/>
       <c r="I140" s="19"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9">
       <c r="A141" s="20" t="s">
         <v>54</v>
       </c>
@@ -5134,7 +5218,7 @@
       <c r="H141" s="8"/>
       <c r="I141" s="22"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9">
       <c r="A142" s="21"/>
       <c r="B142" s="10"/>
       <c r="C142" s="10"/>
@@ -5145,9 +5229,9 @@
       <c r="H142" s="10"/>
       <c r="I142" s="23"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9">
       <c r="A143" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B143" s="8" t="s">
         <v>98</v>
@@ -5160,7 +5244,7 @@
       <c r="H143" s="8"/>
       <c r="I143" s="22"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9">
       <c r="A144" s="21"/>
       <c r="B144" s="10"/>
       <c r="C144" s="10"/>
@@ -5171,9 +5255,9 @@
       <c r="H144" s="10"/>
       <c r="I144" s="23"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9">
       <c r="A145" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B145" s="34" t="s">
         <v>99</v>
@@ -5186,7 +5270,7 @@
       <c r="H145" s="34"/>
       <c r="I145" s="35"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9">
       <c r="A146" s="6"/>
       <c r="B146" s="36"/>
       <c r="C146" s="36"/>
@@ -5197,7 +5281,7 @@
       <c r="H146" s="36"/>
       <c r="I146" s="37"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9">
       <c r="A147" s="6"/>
       <c r="B147" s="36"/>
       <c r="C147" s="36"/>
@@ -5208,7 +5292,7 @@
       <c r="H147" s="36"/>
       <c r="I147" s="37"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9">
       <c r="A148" s="6"/>
       <c r="B148" s="36"/>
       <c r="C148" s="36"/>
@@ -5219,7 +5303,7 @@
       <c r="H148" s="36"/>
       <c r="I148" s="37"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9">
       <c r="A149" s="6"/>
       <c r="B149" s="36"/>
       <c r="C149" s="36"/>
@@ -5230,7 +5314,7 @@
       <c r="H149" s="36"/>
       <c r="I149" s="37"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9">
       <c r="A150" s="6"/>
       <c r="B150" s="36"/>
       <c r="C150" s="36"/>
@@ -5241,7 +5325,7 @@
       <c r="H150" s="36"/>
       <c r="I150" s="37"/>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9">
       <c r="A151" s="7"/>
       <c r="B151" s="38"/>
       <c r="C151" s="38"/>
@@ -5252,9 +5336,9 @@
       <c r="H151" s="38"/>
       <c r="I151" s="39"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9">
       <c r="A154" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B154" s="26" t="s">
         <v>100</v>
@@ -5267,7 +5351,7 @@
       <c r="H154" s="26"/>
       <c r="I154" s="27"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9">
       <c r="A155" s="33"/>
       <c r="B155" s="28"/>
       <c r="C155" s="28"/>
@@ -5278,9 +5362,9 @@
       <c r="H155" s="28"/>
       <c r="I155" s="29"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9">
       <c r="A156" s="11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B156" s="12"/>
       <c r="C156" s="15" t="s">
@@ -5293,7 +5377,7 @@
       <c r="H156" s="16"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9">
       <c r="A157" s="13"/>
       <c r="B157" s="14"/>
       <c r="C157" s="18"/>
@@ -5304,7 +5388,7 @@
       <c r="H157" s="18"/>
       <c r="I157" s="19"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9">
       <c r="A158" s="20" t="s">
         <v>54</v>
       </c>
@@ -5319,7 +5403,7 @@
       <c r="H158" s="34"/>
       <c r="I158" s="35"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9">
       <c r="A159" s="21"/>
       <c r="B159" s="38"/>
       <c r="C159" s="38"/>
@@ -5330,9 +5414,9 @@
       <c r="H159" s="38"/>
       <c r="I159" s="39"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9">
       <c r="A160" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B160" s="8" t="s">
         <v>103</v>
@@ -5345,7 +5429,7 @@
       <c r="H160" s="8"/>
       <c r="I160" s="22"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9">
       <c r="A161" s="21"/>
       <c r="B161" s="10"/>
       <c r="C161" s="10"/>
@@ -5356,9 +5440,9 @@
       <c r="H161" s="10"/>
       <c r="I161" s="23"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9">
       <c r="A162" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B162" s="34" t="s">
         <v>104</v>
@@ -5371,7 +5455,7 @@
       <c r="H162" s="34"/>
       <c r="I162" s="35"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9">
       <c r="A163" s="6"/>
       <c r="B163" s="36"/>
       <c r="C163" s="36"/>
@@ -5382,7 +5466,7 @@
       <c r="H163" s="36"/>
       <c r="I163" s="37"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9">
       <c r="A164" s="6"/>
       <c r="B164" s="36"/>
       <c r="C164" s="36"/>
@@ -5393,7 +5477,7 @@
       <c r="H164" s="36"/>
       <c r="I164" s="37"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9">
       <c r="A165" s="6"/>
       <c r="B165" s="36"/>
       <c r="C165" s="36"/>
@@ -5404,7 +5488,7 @@
       <c r="H165" s="36"/>
       <c r="I165" s="37"/>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9">
       <c r="A166" s="6"/>
       <c r="B166" s="36"/>
       <c r="C166" s="36"/>
@@ -5415,7 +5499,7 @@
       <c r="H166" s="36"/>
       <c r="I166" s="37"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9">
       <c r="A167" s="6"/>
       <c r="B167" s="36"/>
       <c r="C167" s="36"/>
@@ -5426,7 +5510,7 @@
       <c r="H167" s="36"/>
       <c r="I167" s="37"/>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9">
       <c r="A168" s="7"/>
       <c r="B168" s="38"/>
       <c r="C168" s="38"/>
@@ -5437,9 +5521,9 @@
       <c r="H168" s="38"/>
       <c r="I168" s="39"/>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9">
       <c r="A171" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B171" s="26" t="s">
         <v>105</v>
@@ -5452,7 +5536,7 @@
       <c r="H171" s="26"/>
       <c r="I171" s="27"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9">
       <c r="A172" s="33"/>
       <c r="B172" s="28"/>
       <c r="C172" s="28"/>
@@ -5463,9 +5547,9 @@
       <c r="H172" s="28"/>
       <c r="I172" s="29"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9">
       <c r="A173" s="11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B173" s="12"/>
       <c r="C173" s="15" t="s">
@@ -5478,7 +5562,7 @@
       <c r="H173" s="16"/>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9">
       <c r="A174" s="13"/>
       <c r="B174" s="14"/>
       <c r="C174" s="18"/>
@@ -5489,7 +5573,7 @@
       <c r="H174" s="18"/>
       <c r="I174" s="19"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9">
       <c r="A175" s="20" t="s">
         <v>54</v>
       </c>
@@ -5504,7 +5588,7 @@
       <c r="H175" s="34"/>
       <c r="I175" s="35"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9">
       <c r="A176" s="21"/>
       <c r="B176" s="38"/>
       <c r="C176" s="38"/>
@@ -5515,9 +5599,9 @@
       <c r="H176" s="38"/>
       <c r="I176" s="39"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9">
       <c r="A177" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B177" s="8" t="s">
         <v>107</v>
@@ -5530,7 +5614,7 @@
       <c r="H177" s="8"/>
       <c r="I177" s="22"/>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9">
       <c r="A178" s="21"/>
       <c r="B178" s="10"/>
       <c r="C178" s="10"/>
@@ -5541,9 +5625,9 @@
       <c r="H178" s="10"/>
       <c r="I178" s="23"/>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9">
       <c r="A179" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B179" s="34" t="s">
         <v>108</v>
@@ -5556,7 +5640,7 @@
       <c r="H179" s="34"/>
       <c r="I179" s="35"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9">
       <c r="A180" s="6"/>
       <c r="B180" s="36"/>
       <c r="C180" s="36"/>
@@ -5567,7 +5651,7 @@
       <c r="H180" s="36"/>
       <c r="I180" s="37"/>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9">
       <c r="A181" s="6"/>
       <c r="B181" s="36"/>
       <c r="C181" s="36"/>
@@ -5578,7 +5662,7 @@
       <c r="H181" s="36"/>
       <c r="I181" s="37"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9">
       <c r="A182" s="6"/>
       <c r="B182" s="36"/>
       <c r="C182" s="36"/>
@@ -5589,7 +5673,7 @@
       <c r="H182" s="36"/>
       <c r="I182" s="37"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9">
       <c r="A183" s="6"/>
       <c r="B183" s="36"/>
       <c r="C183" s="36"/>
@@ -5600,7 +5684,7 @@
       <c r="H183" s="36"/>
       <c r="I183" s="37"/>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9">
       <c r="A184" s="6"/>
       <c r="B184" s="36"/>
       <c r="C184" s="36"/>
@@ -5611,7 +5695,7 @@
       <c r="H184" s="36"/>
       <c r="I184" s="37"/>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9">
       <c r="A185" s="7"/>
       <c r="B185" s="38"/>
       <c r="C185" s="38"/>
@@ -5622,9 +5706,9 @@
       <c r="H185" s="38"/>
       <c r="I185" s="39"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9">
       <c r="A188" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B188" s="26" t="s">
         <v>109</v>
@@ -5637,7 +5721,7 @@
       <c r="H188" s="26"/>
       <c r="I188" s="27"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9">
       <c r="A189" s="33"/>
       <c r="B189" s="28"/>
       <c r="C189" s="28"/>
@@ -5648,9 +5732,9 @@
       <c r="H189" s="28"/>
       <c r="I189" s="29"/>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9">
       <c r="A190" s="11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B190" s="12"/>
       <c r="C190" s="15" t="s">
@@ -5663,7 +5747,7 @@
       <c r="H190" s="16"/>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9">
       <c r="A191" s="13"/>
       <c r="B191" s="14"/>
       <c r="C191" s="18"/>
@@ -5674,7 +5758,7 @@
       <c r="H191" s="18"/>
       <c r="I191" s="19"/>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9">
       <c r="A192" s="20" t="s">
         <v>54</v>
       </c>
@@ -5689,7 +5773,7 @@
       <c r="H192" s="34"/>
       <c r="I192" s="35"/>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9">
       <c r="A193" s="21"/>
       <c r="B193" s="38"/>
       <c r="C193" s="38"/>
@@ -5700,9 +5784,9 @@
       <c r="H193" s="38"/>
       <c r="I193" s="39"/>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9">
       <c r="A194" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B194" s="8" t="s">
         <v>112</v>
@@ -5715,7 +5799,7 @@
       <c r="H194" s="8"/>
       <c r="I194" s="22"/>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9">
       <c r="A195" s="21"/>
       <c r="B195" s="10"/>
       <c r="C195" s="10"/>
@@ -5726,9 +5810,9 @@
       <c r="H195" s="10"/>
       <c r="I195" s="23"/>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9">
       <c r="A196" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B196" s="34" t="s">
         <v>113</v>
@@ -5741,7 +5825,7 @@
       <c r="H196" s="34"/>
       <c r="I196" s="35"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9">
       <c r="A197" s="6"/>
       <c r="B197" s="36"/>
       <c r="C197" s="36"/>
@@ -5752,7 +5836,7 @@
       <c r="H197" s="36"/>
       <c r="I197" s="37"/>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9">
       <c r="A198" s="6"/>
       <c r="B198" s="36"/>
       <c r="C198" s="36"/>
@@ -5763,7 +5847,7 @@
       <c r="H198" s="36"/>
       <c r="I198" s="37"/>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9">
       <c r="A199" s="6"/>
       <c r="B199" s="36"/>
       <c r="C199" s="36"/>
@@ -5774,7 +5858,7 @@
       <c r="H199" s="36"/>
       <c r="I199" s="37"/>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9">
       <c r="A200" s="6"/>
       <c r="B200" s="36"/>
       <c r="C200" s="36"/>
@@ -5785,7 +5869,7 @@
       <c r="H200" s="36"/>
       <c r="I200" s="37"/>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9">
       <c r="A201" s="6"/>
       <c r="B201" s="36"/>
       <c r="C201" s="36"/>
@@ -5796,7 +5880,7 @@
       <c r="H201" s="36"/>
       <c r="I201" s="37"/>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9">
       <c r="A202" s="7"/>
       <c r="B202" s="38"/>
       <c r="C202" s="38"/>
@@ -5807,9 +5891,9 @@
       <c r="H202" s="38"/>
       <c r="I202" s="39"/>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9">
       <c r="A205" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B205" s="26" t="s">
         <v>114</v>
@@ -5822,7 +5906,7 @@
       <c r="H205" s="26"/>
       <c r="I205" s="27"/>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9">
       <c r="A206" s="33"/>
       <c r="B206" s="28"/>
       <c r="C206" s="28"/>
@@ -5833,13 +5917,13 @@
       <c r="H206" s="28"/>
       <c r="I206" s="29"/>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9">
       <c r="A207" s="11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B207" s="12"/>
       <c r="C207" s="15" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D207" s="16"/>
       <c r="E207" s="16"/>
@@ -5848,7 +5932,7 @@
       <c r="H207" s="16"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9">
       <c r="A208" s="13"/>
       <c r="B208" s="14"/>
       <c r="C208" s="18"/>
@@ -5859,12 +5943,12 @@
       <c r="H208" s="18"/>
       <c r="I208" s="19"/>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9">
       <c r="A209" s="20" t="s">
         <v>54</v>
       </c>
       <c r="B209" s="34" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C209" s="34"/>
       <c r="D209" s="34"/>
@@ -5874,7 +5958,7 @@
       <c r="H209" s="34"/>
       <c r="I209" s="35"/>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9">
       <c r="A210" s="21"/>
       <c r="B210" s="38"/>
       <c r="C210" s="38"/>
@@ -5885,12 +5969,12 @@
       <c r="H210" s="38"/>
       <c r="I210" s="39"/>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9">
       <c r="A211" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C211" s="8"/>
       <c r="D211" s="8"/>
@@ -5900,7 +5984,7 @@
       <c r="H211" s="8"/>
       <c r="I211" s="22"/>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9">
       <c r="A212" s="21"/>
       <c r="B212" s="10"/>
       <c r="C212" s="10"/>
@@ -5911,12 +5995,12 @@
       <c r="H212" s="10"/>
       <c r="I212" s="23"/>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9">
       <c r="A213" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B213" s="34" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C213" s="34"/>
       <c r="D213" s="34"/>
@@ -5926,7 +6010,7 @@
       <c r="H213" s="34"/>
       <c r="I213" s="35"/>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9">
       <c r="A214" s="6"/>
       <c r="B214" s="36"/>
       <c r="C214" s="36"/>
@@ -5937,7 +6021,7 @@
       <c r="H214" s="36"/>
       <c r="I214" s="37"/>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9">
       <c r="A215" s="6"/>
       <c r="B215" s="36"/>
       <c r="C215" s="36"/>
@@ -5948,7 +6032,7 @@
       <c r="H215" s="36"/>
       <c r="I215" s="37"/>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9">
       <c r="A216" s="6"/>
       <c r="B216" s="36"/>
       <c r="C216" s="36"/>
@@ -5959,7 +6043,7 @@
       <c r="H216" s="36"/>
       <c r="I216" s="37"/>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9">
       <c r="A217" s="6"/>
       <c r="B217" s="36"/>
       <c r="C217" s="36"/>
@@ -5970,7 +6054,7 @@
       <c r="H217" s="36"/>
       <c r="I217" s="37"/>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9">
       <c r="A218" s="6"/>
       <c r="B218" s="36"/>
       <c r="C218" s="36"/>
@@ -5981,7 +6065,7 @@
       <c r="H218" s="36"/>
       <c r="I218" s="37"/>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9">
       <c r="A219" s="7"/>
       <c r="B219" s="38"/>
       <c r="C219" s="38"/>
@@ -5992,31 +6076,31 @@
       <c r="H219" s="38"/>
       <c r="I219" s="39"/>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A220" s="3"/>
-      <c r="B220" s="4"/>
-      <c r="C220" s="4"/>
-      <c r="D220" s="4"/>
-      <c r="E220" s="4"/>
-      <c r="F220" s="4"/>
-      <c r="G220" s="4"/>
-      <c r="H220" s="4"/>
-      <c r="I220" s="4"/>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A221" s="3"/>
-      <c r="B221" s="4"/>
-      <c r="C221" s="4"/>
-      <c r="D221" s="4"/>
-      <c r="E221" s="4"/>
-      <c r="F221" s="4"/>
-      <c r="G221" s="4"/>
-      <c r="H221" s="4"/>
-      <c r="I221" s="4"/>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9">
+      <c r="A220" s="2"/>
+      <c r="B220" s="3"/>
+      <c r="C220" s="3"/>
+      <c r="D220" s="3"/>
+      <c r="E220" s="3"/>
+      <c r="F220" s="3"/>
+      <c r="G220" s="3"/>
+      <c r="H220" s="3"/>
+      <c r="I220" s="3"/>
+    </row>
+    <row r="221" spans="1:9">
+      <c r="A221" s="2"/>
+      <c r="B221" s="3"/>
+      <c r="C221" s="3"/>
+      <c r="D221" s="3"/>
+      <c r="E221" s="3"/>
+      <c r="F221" s="3"/>
+      <c r="G221" s="3"/>
+      <c r="H221" s="3"/>
+      <c r="I221" s="3"/>
+    </row>
+    <row r="222" spans="1:9">
       <c r="A222" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B222" s="26" t="s">
         <v>119</v>
@@ -6029,7 +6113,7 @@
       <c r="H222" s="26"/>
       <c r="I222" s="27"/>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9">
       <c r="A223" s="33"/>
       <c r="B223" s="28"/>
       <c r="C223" s="28"/>
@@ -6040,13 +6124,13 @@
       <c r="H223" s="28"/>
       <c r="I223" s="29"/>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9">
       <c r="A224" s="11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B224" s="12"/>
       <c r="C224" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D224" s="16"/>
       <c r="E224" s="16"/>
@@ -6055,7 +6139,7 @@
       <c r="H224" s="16"/>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9">
       <c r="A225" s="13"/>
       <c r="B225" s="14"/>
       <c r="C225" s="18"/>
@@ -6066,12 +6150,12 @@
       <c r="H225" s="18"/>
       <c r="I225" s="19"/>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9">
       <c r="A226" s="20" t="s">
         <v>54</v>
       </c>
       <c r="B226" s="34" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C226" s="34"/>
       <c r="D226" s="34"/>
@@ -6081,7 +6165,7 @@
       <c r="H226" s="34"/>
       <c r="I226" s="35"/>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9">
       <c r="A227" s="21"/>
       <c r="B227" s="38"/>
       <c r="C227" s="38"/>
@@ -6092,12 +6176,12 @@
       <c r="H227" s="38"/>
       <c r="I227" s="39"/>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9">
       <c r="A228" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C228" s="8"/>
       <c r="D228" s="8"/>
@@ -6107,7 +6191,7 @@
       <c r="H228" s="8"/>
       <c r="I228" s="22"/>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9">
       <c r="A229" s="21"/>
       <c r="B229" s="10"/>
       <c r="C229" s="10"/>
@@ -6118,12 +6202,12 @@
       <c r="H229" s="10"/>
       <c r="I229" s="23"/>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9">
       <c r="A230" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B230" s="34" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C230" s="34"/>
       <c r="D230" s="34"/>
@@ -6133,7 +6217,7 @@
       <c r="H230" s="34"/>
       <c r="I230" s="35"/>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9">
       <c r="A231" s="6"/>
       <c r="B231" s="36"/>
       <c r="C231" s="36"/>
@@ -6144,7 +6228,7 @@
       <c r="H231" s="36"/>
       <c r="I231" s="37"/>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9">
       <c r="A232" s="6"/>
       <c r="B232" s="36"/>
       <c r="C232" s="36"/>
@@ -6155,7 +6239,7 @@
       <c r="H232" s="36"/>
       <c r="I232" s="37"/>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9">
       <c r="A233" s="6"/>
       <c r="B233" s="36"/>
       <c r="C233" s="36"/>
@@ -6166,7 +6250,7 @@
       <c r="H233" s="36"/>
       <c r="I233" s="37"/>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9">
       <c r="A234" s="6"/>
       <c r="B234" s="36"/>
       <c r="C234" s="36"/>
@@ -6177,7 +6261,7 @@
       <c r="H234" s="36"/>
       <c r="I234" s="37"/>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9">
       <c r="A235" s="6"/>
       <c r="B235" s="36"/>
       <c r="C235" s="36"/>
@@ -6188,7 +6272,7 @@
       <c r="H235" s="36"/>
       <c r="I235" s="37"/>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9">
       <c r="A236" s="7"/>
       <c r="B236" s="38"/>
       <c r="C236" s="38"/>
@@ -6199,34 +6283,34 @@
       <c r="H236" s="38"/>
       <c r="I236" s="39"/>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A237" s="3"/>
-      <c r="B237" s="4"/>
-      <c r="C237" s="4"/>
-      <c r="D237" s="4"/>
-      <c r="E237" s="4"/>
-      <c r="F237" s="4"/>
-      <c r="G237" s="4"/>
-      <c r="H237" s="4"/>
-      <c r="I237" s="4"/>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A238" s="3"/>
-      <c r="B238" s="4"/>
-      <c r="C238" s="4"/>
-      <c r="D238" s="4"/>
-      <c r="E238" s="4"/>
-      <c r="F238" s="4"/>
-      <c r="G238" s="4"/>
-      <c r="H238" s="4"/>
-      <c r="I238" s="4"/>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9">
+      <c r="A237" s="2"/>
+      <c r="B237" s="3"/>
+      <c r="C237" s="3"/>
+      <c r="D237" s="3"/>
+      <c r="E237" s="3"/>
+      <c r="F237" s="3"/>
+      <c r="G237" s="3"/>
+      <c r="H237" s="3"/>
+      <c r="I237" s="3"/>
+    </row>
+    <row r="238" spans="1:9">
+      <c r="A238" s="2"/>
+      <c r="B238" s="3"/>
+      <c r="C238" s="3"/>
+      <c r="D238" s="3"/>
+      <c r="E238" s="3"/>
+      <c r="F238" s="3"/>
+      <c r="G238" s="3"/>
+      <c r="H238" s="3"/>
+      <c r="I238" s="3"/>
+    </row>
+    <row r="239" spans="1:9">
       <c r="A239" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B239" s="26" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C239" s="26"/>
       <c r="D239" s="26"/>
@@ -6236,7 +6320,7 @@
       <c r="H239" s="26"/>
       <c r="I239" s="27"/>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9">
       <c r="A240" s="33"/>
       <c r="B240" s="28"/>
       <c r="C240" s="28"/>
@@ -6247,13 +6331,13 @@
       <c r="H240" s="28"/>
       <c r="I240" s="29"/>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9">
       <c r="A241" s="11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B241" s="12"/>
       <c r="C241" s="15" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D241" s="16"/>
       <c r="E241" s="16"/>
@@ -6262,7 +6346,7 @@
       <c r="H241" s="16"/>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9">
       <c r="A242" s="13"/>
       <c r="B242" s="14"/>
       <c r="C242" s="18"/>
@@ -6273,12 +6357,12 @@
       <c r="H242" s="18"/>
       <c r="I242" s="19"/>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9">
       <c r="A243" s="20" t="s">
         <v>54</v>
       </c>
       <c r="B243" s="34" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C243" s="34"/>
       <c r="D243" s="34"/>
@@ -6288,7 +6372,7 @@
       <c r="H243" s="34"/>
       <c r="I243" s="35"/>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9">
       <c r="A244" s="21"/>
       <c r="B244" s="38"/>
       <c r="C244" s="38"/>
@@ -6299,12 +6383,12 @@
       <c r="H244" s="38"/>
       <c r="I244" s="39"/>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9">
       <c r="A245" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C245" s="8"/>
       <c r="D245" s="8"/>
@@ -6314,7 +6398,7 @@
       <c r="H245" s="8"/>
       <c r="I245" s="22"/>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9">
       <c r="A246" s="21"/>
       <c r="B246" s="10"/>
       <c r="C246" s="10"/>
@@ -6325,12 +6409,12 @@
       <c r="H246" s="10"/>
       <c r="I246" s="23"/>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9">
       <c r="A247" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B247" s="34" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C247" s="34"/>
       <c r="D247" s="34"/>
@@ -6340,7 +6424,7 @@
       <c r="H247" s="34"/>
       <c r="I247" s="35"/>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9">
       <c r="A248" s="6"/>
       <c r="B248" s="36"/>
       <c r="C248" s="36"/>
@@ -6351,7 +6435,7 @@
       <c r="H248" s="36"/>
       <c r="I248" s="37"/>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9">
       <c r="A249" s="6"/>
       <c r="B249" s="36"/>
       <c r="C249" s="36"/>
@@ -6362,7 +6446,7 @@
       <c r="H249" s="36"/>
       <c r="I249" s="37"/>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9">
       <c r="A250" s="6"/>
       <c r="B250" s="36"/>
       <c r="C250" s="36"/>
@@ -6373,7 +6457,7 @@
       <c r="H250" s="36"/>
       <c r="I250" s="37"/>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9">
       <c r="A251" s="6"/>
       <c r="B251" s="36"/>
       <c r="C251" s="36"/>
@@ -6384,7 +6468,7 @@
       <c r="H251" s="36"/>
       <c r="I251" s="37"/>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9">
       <c r="A252" s="6"/>
       <c r="B252" s="36"/>
       <c r="C252" s="36"/>
@@ -6395,7 +6479,7 @@
       <c r="H252" s="36"/>
       <c r="I252" s="37"/>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9">
       <c r="A253" s="7"/>
       <c r="B253" s="38"/>
       <c r="C253" s="38"/>
@@ -6406,34 +6490,34 @@
       <c r="H253" s="38"/>
       <c r="I253" s="39"/>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A254" s="3"/>
-      <c r="B254" s="4"/>
-      <c r="C254" s="4"/>
-      <c r="D254" s="4"/>
-      <c r="E254" s="4"/>
-      <c r="F254" s="4"/>
-      <c r="G254" s="4"/>
-      <c r="H254" s="4"/>
-      <c r="I254" s="4"/>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A255" s="3"/>
-      <c r="B255" s="4"/>
-      <c r="C255" s="4"/>
-      <c r="D255" s="4"/>
-      <c r="E255" s="4"/>
-      <c r="F255" s="4"/>
-      <c r="G255" s="4"/>
-      <c r="H255" s="4"/>
-      <c r="I255" s="4"/>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9">
+      <c r="A254" s="2"/>
+      <c r="B254" s="3"/>
+      <c r="C254" s="3"/>
+      <c r="D254" s="3"/>
+      <c r="E254" s="3"/>
+      <c r="F254" s="3"/>
+      <c r="G254" s="3"/>
+      <c r="H254" s="3"/>
+      <c r="I254" s="3"/>
+    </row>
+    <row r="255" spans="1:9">
+      <c r="A255" s="2"/>
+      <c r="B255" s="3"/>
+      <c r="C255" s="3"/>
+      <c r="D255" s="3"/>
+      <c r="E255" s="3"/>
+      <c r="F255" s="3"/>
+      <c r="G255" s="3"/>
+      <c r="H255" s="3"/>
+      <c r="I255" s="3"/>
+    </row>
+    <row r="256" spans="1:9">
       <c r="A256" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B256" s="26" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C256" s="26"/>
       <c r="D256" s="26"/>
@@ -6443,7 +6527,7 @@
       <c r="H256" s="26"/>
       <c r="I256" s="27"/>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9">
       <c r="A257" s="33"/>
       <c r="B257" s="28"/>
       <c r="C257" s="28"/>
@@ -6454,13 +6538,13 @@
       <c r="H257" s="28"/>
       <c r="I257" s="29"/>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9">
       <c r="A258" s="11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B258" s="40"/>
       <c r="C258" s="15" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="D258" s="16"/>
       <c r="E258" s="16"/>
@@ -6469,7 +6553,7 @@
       <c r="H258" s="16"/>
       <c r="I258" s="17"/>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9">
       <c r="A259" s="41"/>
       <c r="B259" s="42"/>
       <c r="C259" s="18"/>
@@ -6480,12 +6564,12 @@
       <c r="H259" s="18"/>
       <c r="I259" s="19"/>
     </row>
-    <row r="260" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" ht="15" customHeight="1">
       <c r="A260" s="20" t="s">
         <v>54</v>
       </c>
       <c r="B260" s="34" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="C260" s="34"/>
       <c r="D260" s="34"/>
@@ -6495,7 +6579,7 @@
       <c r="H260" s="34"/>
       <c r="I260" s="35"/>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9">
       <c r="A261" s="21"/>
       <c r="B261" s="38"/>
       <c r="C261" s="38"/>
@@ -6506,12 +6590,12 @@
       <c r="H261" s="38"/>
       <c r="I261" s="39"/>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9">
       <c r="A262" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="C262" s="8"/>
       <c r="D262" s="8"/>
@@ -6521,7 +6605,7 @@
       <c r="H262" s="8"/>
       <c r="I262" s="22"/>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9">
       <c r="A263" s="21"/>
       <c r="B263" s="10"/>
       <c r="C263" s="10"/>
@@ -6532,12 +6616,12 @@
       <c r="H263" s="10"/>
       <c r="I263" s="23"/>
     </row>
-    <row r="264" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" ht="15" customHeight="1">
       <c r="A264" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B264" s="34" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="C264" s="34"/>
       <c r="D264" s="34"/>
@@ -6547,7 +6631,7 @@
       <c r="H264" s="34"/>
       <c r="I264" s="35"/>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9">
       <c r="A265" s="6"/>
       <c r="B265" s="36"/>
       <c r="C265" s="36"/>
@@ -6558,7 +6642,7 @@
       <c r="H265" s="36"/>
       <c r="I265" s="37"/>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9">
       <c r="A266" s="6"/>
       <c r="B266" s="36"/>
       <c r="C266" s="36"/>
@@ -6569,7 +6653,7 @@
       <c r="H266" s="36"/>
       <c r="I266" s="37"/>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9">
       <c r="A267" s="6"/>
       <c r="B267" s="36"/>
       <c r="C267" s="36"/>
@@ -6580,7 +6664,7 @@
       <c r="H267" s="36"/>
       <c r="I267" s="37"/>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9">
       <c r="A268" s="6"/>
       <c r="B268" s="36"/>
       <c r="C268" s="36"/>
@@ -6591,7 +6675,7 @@
       <c r="H268" s="36"/>
       <c r="I268" s="37"/>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9">
       <c r="A269" s="6"/>
       <c r="B269" s="36"/>
       <c r="C269" s="36"/>
@@ -6602,7 +6686,7 @@
       <c r="H269" s="36"/>
       <c r="I269" s="37"/>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9">
       <c r="A270" s="7"/>
       <c r="B270" s="38"/>
       <c r="C270" s="38"/>
@@ -6613,9 +6697,9 @@
       <c r="H270" s="38"/>
       <c r="I270" s="39"/>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9">
       <c r="A273" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B273" s="26" t="s">
         <v>134</v>
@@ -6628,7 +6712,7 @@
       <c r="H273" s="26"/>
       <c r="I273" s="27"/>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9">
       <c r="A274" s="33"/>
       <c r="B274" s="28"/>
       <c r="C274" s="28"/>
@@ -6639,9 +6723,9 @@
       <c r="H274" s="28"/>
       <c r="I274" s="29"/>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9">
       <c r="A275" s="11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B275" s="40"/>
       <c r="C275" s="15" t="s">
@@ -6654,7 +6738,7 @@
       <c r="H275" s="16"/>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9">
       <c r="A276" s="41"/>
       <c r="B276" s="42"/>
       <c r="C276" s="18"/>
@@ -6665,12 +6749,12 @@
       <c r="H276" s="18"/>
       <c r="I276" s="19"/>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9">
       <c r="A277" s="20" t="s">
         <v>54</v>
       </c>
       <c r="B277" s="34" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C277" s="34"/>
       <c r="D277" s="34"/>
@@ -6680,7 +6764,7 @@
       <c r="H277" s="34"/>
       <c r="I277" s="35"/>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9">
       <c r="A278" s="21"/>
       <c r="B278" s="38"/>
       <c r="C278" s="38"/>
@@ -6691,12 +6775,12 @@
       <c r="H278" s="38"/>
       <c r="I278" s="39"/>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9">
       <c r="A279" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C279" s="8"/>
       <c r="D279" s="8"/>
@@ -6706,7 +6790,7 @@
       <c r="H279" s="8"/>
       <c r="I279" s="22"/>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9">
       <c r="A280" s="21"/>
       <c r="B280" s="10"/>
       <c r="C280" s="10"/>
@@ -6717,12 +6801,12 @@
       <c r="H280" s="10"/>
       <c r="I280" s="23"/>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9">
       <c r="A281" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B281" s="34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C281" s="34"/>
       <c r="D281" s="34"/>
@@ -6732,7 +6816,7 @@
       <c r="H281" s="34"/>
       <c r="I281" s="35"/>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9">
       <c r="A282" s="6"/>
       <c r="B282" s="36"/>
       <c r="C282" s="36"/>
@@ -6743,7 +6827,7 @@
       <c r="H282" s="36"/>
       <c r="I282" s="37"/>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9">
       <c r="A283" s="6"/>
       <c r="B283" s="36"/>
       <c r="C283" s="36"/>
@@ -6754,7 +6838,7 @@
       <c r="H283" s="36"/>
       <c r="I283" s="37"/>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9">
       <c r="A284" s="6"/>
       <c r="B284" s="36"/>
       <c r="C284" s="36"/>
@@ -6765,7 +6849,7 @@
       <c r="H284" s="36"/>
       <c r="I284" s="37"/>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9">
       <c r="A285" s="6"/>
       <c r="B285" s="36"/>
       <c r="C285" s="36"/>
@@ -6776,7 +6860,7 @@
       <c r="H285" s="36"/>
       <c r="I285" s="37"/>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9">
       <c r="A286" s="6"/>
       <c r="B286" s="36"/>
       <c r="C286" s="36"/>
@@ -6787,7 +6871,7 @@
       <c r="H286" s="36"/>
       <c r="I286" s="37"/>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9">
       <c r="A287" s="7"/>
       <c r="B287" s="38"/>
       <c r="C287" s="38"/>
@@ -6798,9 +6882,9 @@
       <c r="H287" s="38"/>
       <c r="I287" s="39"/>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9">
       <c r="A290" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B290" s="26" t="s">
         <v>139</v>
@@ -6813,7 +6897,7 @@
       <c r="H290" s="26"/>
       <c r="I290" s="27"/>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9">
       <c r="A291" s="33"/>
       <c r="B291" s="28"/>
       <c r="C291" s="28"/>
@@ -6824,9 +6908,9 @@
       <c r="H291" s="28"/>
       <c r="I291" s="29"/>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9">
       <c r="A292" s="11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B292" s="40"/>
       <c r="C292" s="15" t="s">
@@ -6839,7 +6923,7 @@
       <c r="H292" s="16"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9">
       <c r="A293" s="41"/>
       <c r="B293" s="42"/>
       <c r="C293" s="18"/>
@@ -6850,7 +6934,7 @@
       <c r="H293" s="18"/>
       <c r="I293" s="19"/>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9">
       <c r="A294" s="20" t="s">
         <v>54</v>
       </c>
@@ -6865,7 +6949,7 @@
       <c r="H294" s="34"/>
       <c r="I294" s="35"/>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9">
       <c r="A295" s="21"/>
       <c r="B295" s="38"/>
       <c r="C295" s="38"/>
@@ -6876,9 +6960,9 @@
       <c r="H295" s="38"/>
       <c r="I295" s="39"/>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9">
       <c r="A296" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B296" s="8" t="s">
         <v>142</v>
@@ -6891,7 +6975,7 @@
       <c r="H296" s="8"/>
       <c r="I296" s="22"/>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9">
       <c r="A297" s="21"/>
       <c r="B297" s="10"/>
       <c r="C297" s="10"/>
@@ -6902,9 +6986,9 @@
       <c r="H297" s="10"/>
       <c r="I297" s="23"/>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9">
       <c r="A298" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B298" s="34" t="s">
         <v>143</v>
@@ -6917,7 +7001,7 @@
       <c r="H298" s="34"/>
       <c r="I298" s="35"/>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9">
       <c r="A299" s="6"/>
       <c r="B299" s="36"/>
       <c r="C299" s="36"/>
@@ -6928,7 +7012,7 @@
       <c r="H299" s="36"/>
       <c r="I299" s="37"/>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9">
       <c r="A300" s="6"/>
       <c r="B300" s="36"/>
       <c r="C300" s="36"/>
@@ -6939,7 +7023,7 @@
       <c r="H300" s="36"/>
       <c r="I300" s="37"/>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9">
       <c r="A301" s="6"/>
       <c r="B301" s="36"/>
       <c r="C301" s="36"/>
@@ -6950,7 +7034,7 @@
       <c r="H301" s="36"/>
       <c r="I301" s="37"/>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9">
       <c r="A302" s="6"/>
       <c r="B302" s="36"/>
       <c r="C302" s="36"/>
@@ -6961,7 +7045,7 @@
       <c r="H302" s="36"/>
       <c r="I302" s="37"/>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9">
       <c r="A303" s="6"/>
       <c r="B303" s="36"/>
       <c r="C303" s="36"/>
@@ -6972,7 +7056,7 @@
       <c r="H303" s="36"/>
       <c r="I303" s="37"/>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9">
       <c r="A304" s="7"/>
       <c r="B304" s="38"/>
       <c r="C304" s="38"/>
@@ -6983,9 +7067,9 @@
       <c r="H304" s="38"/>
       <c r="I304" s="39"/>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9">
       <c r="A307" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B307" s="26" t="s">
         <v>144</v>
@@ -6998,7 +7082,7 @@
       <c r="H307" s="26"/>
       <c r="I307" s="27"/>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9">
       <c r="A308" s="33"/>
       <c r="B308" s="28"/>
       <c r="C308" s="28"/>
@@ -7009,9 +7093,9 @@
       <c r="H308" s="28"/>
       <c r="I308" s="29"/>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9">
       <c r="A309" s="11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B309" s="40"/>
       <c r="C309" s="15" t="s">
@@ -7024,7 +7108,7 @@
       <c r="H309" s="16"/>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9">
       <c r="A310" s="41"/>
       <c r="B310" s="42"/>
       <c r="C310" s="18"/>
@@ -7035,7 +7119,7 @@
       <c r="H310" s="18"/>
       <c r="I310" s="19"/>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9">
       <c r="A311" s="20" t="s">
         <v>54</v>
       </c>
@@ -7050,7 +7134,7 @@
       <c r="H311" s="34"/>
       <c r="I311" s="35"/>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9">
       <c r="A312" s="21"/>
       <c r="B312" s="38"/>
       <c r="C312" s="38"/>
@@ -7061,9 +7145,9 @@
       <c r="H312" s="38"/>
       <c r="I312" s="39"/>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9">
       <c r="A313" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B313" s="8" t="s">
         <v>147</v>
@@ -7076,7 +7160,7 @@
       <c r="H313" s="8"/>
       <c r="I313" s="22"/>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9">
       <c r="A314" s="21"/>
       <c r="B314" s="10"/>
       <c r="C314" s="10"/>
@@ -7087,9 +7171,9 @@
       <c r="H314" s="10"/>
       <c r="I314" s="23"/>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9">
       <c r="A315" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B315" s="34" t="s">
         <v>148</v>
@@ -7102,7 +7186,7 @@
       <c r="H315" s="34"/>
       <c r="I315" s="35"/>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9">
       <c r="A316" s="6"/>
       <c r="B316" s="36"/>
       <c r="C316" s="36"/>
@@ -7113,7 +7197,7 @@
       <c r="H316" s="36"/>
       <c r="I316" s="37"/>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9">
       <c r="A317" s="6"/>
       <c r="B317" s="36"/>
       <c r="C317" s="36"/>
@@ -7124,7 +7208,7 @@
       <c r="H317" s="36"/>
       <c r="I317" s="37"/>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9">
       <c r="A318" s="6"/>
       <c r="B318" s="36"/>
       <c r="C318" s="36"/>
@@ -7135,7 +7219,7 @@
       <c r="H318" s="36"/>
       <c r="I318" s="37"/>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9">
       <c r="A319" s="6"/>
       <c r="B319" s="36"/>
       <c r="C319" s="36"/>
@@ -7146,7 +7230,7 @@
       <c r="H319" s="36"/>
       <c r="I319" s="37"/>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9">
       <c r="A320" s="6"/>
       <c r="B320" s="36"/>
       <c r="C320" s="36"/>
@@ -7157,7 +7241,7 @@
       <c r="H320" s="36"/>
       <c r="I320" s="37"/>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9">
       <c r="A321" s="7"/>
       <c r="B321" s="38"/>
       <c r="C321" s="38"/>
@@ -7168,9 +7252,9 @@
       <c r="H321" s="38"/>
       <c r="I321" s="39"/>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9">
       <c r="A324" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B324" s="26" t="s">
         <v>149</v>
@@ -7183,7 +7267,7 @@
       <c r="H324" s="26"/>
       <c r="I324" s="27"/>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9">
       <c r="A325" s="33"/>
       <c r="B325" s="28"/>
       <c r="C325" s="28"/>
@@ -7194,9 +7278,9 @@
       <c r="H325" s="28"/>
       <c r="I325" s="29"/>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9">
       <c r="A326" s="11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B326" s="40"/>
       <c r="C326" s="15" t="s">
@@ -7209,7 +7293,7 @@
       <c r="H326" s="16"/>
       <c r="I326" s="17"/>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9">
       <c r="A327" s="41"/>
       <c r="B327" s="42"/>
       <c r="C327" s="18"/>
@@ -7220,7 +7304,7 @@
       <c r="H327" s="18"/>
       <c r="I327" s="19"/>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9">
       <c r="A328" s="20" t="s">
         <v>54</v>
       </c>
@@ -7235,7 +7319,7 @@
       <c r="H328" s="34"/>
       <c r="I328" s="35"/>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9">
       <c r="A329" s="21"/>
       <c r="B329" s="38"/>
       <c r="C329" s="38"/>
@@ -7246,9 +7330,9 @@
       <c r="H329" s="38"/>
       <c r="I329" s="39"/>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9">
       <c r="A330" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B330" s="8" t="s">
         <v>152</v>
@@ -7261,7 +7345,7 @@
       <c r="H330" s="8"/>
       <c r="I330" s="22"/>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9">
       <c r="A331" s="21"/>
       <c r="B331" s="10"/>
       <c r="C331" s="10"/>
@@ -7272,9 +7356,9 @@
       <c r="H331" s="10"/>
       <c r="I331" s="23"/>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9">
       <c r="A332" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B332" s="34" t="s">
         <v>153</v>
@@ -7287,7 +7371,7 @@
       <c r="H332" s="34"/>
       <c r="I332" s="35"/>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9">
       <c r="A333" s="6"/>
       <c r="B333" s="36"/>
       <c r="C333" s="36"/>
@@ -7298,7 +7382,7 @@
       <c r="H333" s="36"/>
       <c r="I333" s="37"/>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9">
       <c r="A334" s="6"/>
       <c r="B334" s="36"/>
       <c r="C334" s="36"/>
@@ -7309,7 +7393,7 @@
       <c r="H334" s="36"/>
       <c r="I334" s="37"/>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9">
       <c r="A335" s="6"/>
       <c r="B335" s="36"/>
       <c r="C335" s="36"/>
@@ -7320,7 +7404,7 @@
       <c r="H335" s="36"/>
       <c r="I335" s="37"/>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9">
       <c r="A336" s="6"/>
       <c r="B336" s="36"/>
       <c r="C336" s="36"/>
@@ -7331,7 +7415,7 @@
       <c r="H336" s="36"/>
       <c r="I336" s="37"/>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9">
       <c r="A337" s="6"/>
       <c r="B337" s="36"/>
       <c r="C337" s="36"/>
@@ -7342,7 +7426,7 @@
       <c r="H337" s="36"/>
       <c r="I337" s="37"/>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9">
       <c r="A338" s="7"/>
       <c r="B338" s="38"/>
       <c r="C338" s="38"/>
@@ -7353,9 +7437,9 @@
       <c r="H338" s="38"/>
       <c r="I338" s="39"/>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9">
       <c r="A341" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B341" s="26" t="s">
         <v>154</v>
@@ -7368,7 +7452,7 @@
       <c r="H341" s="26"/>
       <c r="I341" s="27"/>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9">
       <c r="A342" s="33"/>
       <c r="B342" s="28"/>
       <c r="C342" s="28"/>
@@ -7379,9 +7463,9 @@
       <c r="H342" s="28"/>
       <c r="I342" s="29"/>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9">
       <c r="A343" s="11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B343" s="40"/>
       <c r="C343" s="15" t="s">
@@ -7394,7 +7478,7 @@
       <c r="H343" s="16"/>
       <c r="I343" s="17"/>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9">
       <c r="A344" s="41"/>
       <c r="B344" s="42"/>
       <c r="C344" s="18"/>
@@ -7405,7 +7489,7 @@
       <c r="H344" s="18"/>
       <c r="I344" s="19"/>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9">
       <c r="A345" s="20" t="s">
         <v>54</v>
       </c>
@@ -7420,7 +7504,7 @@
       <c r="H345" s="34"/>
       <c r="I345" s="35"/>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9">
       <c r="A346" s="21"/>
       <c r="B346" s="38"/>
       <c r="C346" s="38"/>
@@ -7431,9 +7515,9 @@
       <c r="H346" s="38"/>
       <c r="I346" s="39"/>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9">
       <c r="A347" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B347" s="8" t="s">
         <v>157</v>
@@ -7446,7 +7530,7 @@
       <c r="H347" s="8"/>
       <c r="I347" s="22"/>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9">
       <c r="A348" s="21"/>
       <c r="B348" s="10"/>
       <c r="C348" s="10"/>
@@ -7457,9 +7541,9 @@
       <c r="H348" s="10"/>
       <c r="I348" s="23"/>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9">
       <c r="A349" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B349" s="34" t="s">
         <v>158</v>
@@ -7472,7 +7556,7 @@
       <c r="H349" s="34"/>
       <c r="I349" s="35"/>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9">
       <c r="A350" s="6"/>
       <c r="B350" s="36"/>
       <c r="C350" s="36"/>
@@ -7483,7 +7567,7 @@
       <c r="H350" s="36"/>
       <c r="I350" s="37"/>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9">
       <c r="A351" s="6"/>
       <c r="B351" s="36"/>
       <c r="C351" s="36"/>
@@ -7494,7 +7578,7 @@
       <c r="H351" s="36"/>
       <c r="I351" s="37"/>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9">
       <c r="A352" s="6"/>
       <c r="B352" s="36"/>
       <c r="C352" s="36"/>
@@ -7505,7 +7589,7 @@
       <c r="H352" s="36"/>
       <c r="I352" s="37"/>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9">
       <c r="A353" s="6"/>
       <c r="B353" s="36"/>
       <c r="C353" s="36"/>
@@ -7516,7 +7600,7 @@
       <c r="H353" s="36"/>
       <c r="I353" s="37"/>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9">
       <c r="A354" s="6"/>
       <c r="B354" s="36"/>
       <c r="C354" s="36"/>
@@ -7527,7 +7611,7 @@
       <c r="H354" s="36"/>
       <c r="I354" s="37"/>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9">
       <c r="A355" s="7"/>
       <c r="B355" s="38"/>
       <c r="C355" s="38"/>
@@ -7538,9 +7622,9 @@
       <c r="H355" s="38"/>
       <c r="I355" s="39"/>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9">
       <c r="A358" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B358" s="26" t="s">
         <v>159</v>
@@ -7553,7 +7637,7 @@
       <c r="H358" s="26"/>
       <c r="I358" s="27"/>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9">
       <c r="A359" s="33"/>
       <c r="B359" s="28"/>
       <c r="C359" s="28"/>
@@ -7564,9 +7648,9 @@
       <c r="H359" s="28"/>
       <c r="I359" s="29"/>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9">
       <c r="A360" s="11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B360" s="40"/>
       <c r="C360" s="15" t="s">
@@ -7579,7 +7663,7 @@
       <c r="H360" s="16"/>
       <c r="I360" s="17"/>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9">
       <c r="A361" s="41"/>
       <c r="B361" s="42"/>
       <c r="C361" s="18"/>
@@ -7590,7 +7674,7 @@
       <c r="H361" s="18"/>
       <c r="I361" s="19"/>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9">
       <c r="A362" s="20" t="s">
         <v>54</v>
       </c>
@@ -7605,7 +7689,7 @@
       <c r="H362" s="34"/>
       <c r="I362" s="35"/>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9">
       <c r="A363" s="21"/>
       <c r="B363" s="38"/>
       <c r="C363" s="38"/>
@@ -7616,9 +7700,9 @@
       <c r="H363" s="38"/>
       <c r="I363" s="39"/>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9">
       <c r="A364" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B364" s="8" t="s">
         <v>162</v>
@@ -7631,7 +7715,7 @@
       <c r="H364" s="8"/>
       <c r="I364" s="22"/>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9">
       <c r="A365" s="21"/>
       <c r="B365" s="10"/>
       <c r="C365" s="10"/>
@@ -7642,9 +7726,9 @@
       <c r="H365" s="10"/>
       <c r="I365" s="23"/>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9">
       <c r="A366" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B366" s="34" t="s">
         <v>163</v>
@@ -7657,7 +7741,7 @@
       <c r="H366" s="34"/>
       <c r="I366" s="35"/>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9">
       <c r="A367" s="6"/>
       <c r="B367" s="36"/>
       <c r="C367" s="36"/>
@@ -7668,7 +7752,7 @@
       <c r="H367" s="36"/>
       <c r="I367" s="37"/>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9">
       <c r="A368" s="6"/>
       <c r="B368" s="36"/>
       <c r="C368" s="36"/>
@@ -7679,7 +7763,7 @@
       <c r="H368" s="36"/>
       <c r="I368" s="37"/>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9">
       <c r="A369" s="6"/>
       <c r="B369" s="36"/>
       <c r="C369" s="36"/>
@@ -7690,7 +7774,7 @@
       <c r="H369" s="36"/>
       <c r="I369" s="37"/>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9">
       <c r="A370" s="6"/>
       <c r="B370" s="36"/>
       <c r="C370" s="36"/>
@@ -7701,7 +7785,7 @@
       <c r="H370" s="36"/>
       <c r="I370" s="37"/>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9">
       <c r="A371" s="6"/>
       <c r="B371" s="36"/>
       <c r="C371" s="36"/>
@@ -7712,7 +7796,7 @@
       <c r="H371" s="36"/>
       <c r="I371" s="37"/>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9">
       <c r="A372" s="7"/>
       <c r="B372" s="38"/>
       <c r="C372" s="38"/>
@@ -7783,10 +7867,6 @@
     <mergeCell ref="B277:I278"/>
     <mergeCell ref="A279:A280"/>
     <mergeCell ref="B279:I280"/>
-    <mergeCell ref="A245:A246"/>
-    <mergeCell ref="B245:I246"/>
-    <mergeCell ref="A247:A253"/>
-    <mergeCell ref="B247:I253"/>
     <mergeCell ref="A273:A274"/>
     <mergeCell ref="B273:I274"/>
     <mergeCell ref="A239:A240"/>
@@ -7817,6 +7897,10 @@
     <mergeCell ref="B228:I229"/>
     <mergeCell ref="A230:A236"/>
     <mergeCell ref="B230:I236"/>
+    <mergeCell ref="A245:A246"/>
+    <mergeCell ref="B245:I246"/>
+    <mergeCell ref="A247:A253"/>
+    <mergeCell ref="B247:I253"/>
     <mergeCell ref="A207:B208"/>
     <mergeCell ref="C207:I208"/>
     <mergeCell ref="A209:A210"/>
@@ -7927,6 +8011,14 @@
     <mergeCell ref="B111:I117"/>
     <mergeCell ref="A120:A121"/>
     <mergeCell ref="B120:I121"/>
+    <mergeCell ref="A145:A151"/>
+    <mergeCell ref="B145:I151"/>
+    <mergeCell ref="A139:B140"/>
+    <mergeCell ref="C139:I140"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="B141:I142"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:I144"/>
     <mergeCell ref="A122:B123"/>
     <mergeCell ref="C122:I123"/>
     <mergeCell ref="A124:A125"/>
@@ -7937,16 +8029,480 @@
     <mergeCell ref="B128:I134"/>
     <mergeCell ref="A137:A138"/>
     <mergeCell ref="B137:I138"/>
-    <mergeCell ref="A145:A151"/>
-    <mergeCell ref="B145:I151"/>
-    <mergeCell ref="A139:B140"/>
-    <mergeCell ref="C139:I140"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="B141:I142"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="B143:I144"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77229A20-7F13-4AFB-89C6-C8F7102ED677}">
+  <dimension ref="A1:I36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="27"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="33"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="29"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="20">
+        <v>1</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="21"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="39"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="20">
+        <v>2</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="21"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="23"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="27"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="33"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="29"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="40"/>
+      <c r="C12" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="41"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="19"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="20">
+        <v>1</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="35"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="21"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="39"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="20">
+        <v>2</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="22"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="21"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="23"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="27"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="33"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="29"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="40"/>
+      <c r="C22" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="17"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="41"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="19"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="20">
+        <v>1</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="45"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="21"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="47"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="20">
+        <v>2</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="22"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="21"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="23"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="27"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="33"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="29"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="40"/>
+      <c r="C31" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="17"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="41"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="19"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="20">
+        <v>1</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="45"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="21"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="47"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="20">
+        <v>2</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="22"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="21"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:I36"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:I30"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="C31:I32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:I34"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:I8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:I11"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:I2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:I4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:I6"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:I13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:I15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:I17"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:I27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:I21"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:I23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:I25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Analisis/Epicas.xlsx
+++ b/Analisis/Epicas.xlsx
@@ -550,16 +550,16 @@
     <t>3.2 CA 2</t>
   </si>
   <si>
-    <t>Aplicación de descuentos</t>
-  </si>
-  <si>
-    <t>Que soy el administrador del sistema y haya configurado un descuento para la membresía</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Establezco el periodo de vigencia del descuento </t>
-  </si>
-  <si>
-    <t>El sistema deberá validar las fechas de inicio y fin de la suscripción. (PROTOTIPO #14)</t>
+    <t>Consulta de membresia</t>
+  </si>
+  <si>
+    <t>Que soy el administrador del sistema y haya entradp al modulo de membresía de clientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuando consulto el periodo de vigencia del descuento </t>
+  </si>
+  <si>
+    <t>El sistema deberá mostrar las fechas de inicio y fin de la suscripción. (PROTOTIPO #14)</t>
   </si>
   <si>
     <t>3.2 CA 3</t>
@@ -571,7 +571,7 @@
     <t>Que el sistema cuenta con un plan de membresías</t>
   </si>
   <si>
-    <t>Se establece un descuento para la adquisición o renovación de membresía</t>
+    <t>Se establece un descuento por defecto para la adquisición</t>
   </si>
   <si>
     <t>Se creará un porcentaje o monto fijo de descuento aplicable a la membresía. (PROTOTIPO #15)</t>
@@ -1006,14 +1006,14 @@
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="1" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
@@ -1207,7 +1207,7 @@
     <xdr:ext cx="4791075" cy="3105150"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image17.png"/>
+        <xdr:cNvPr id="0" name="image9.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1235,7 +1235,7 @@
     <xdr:ext cx="4343400" cy="2838450"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Interfaz de usuario gráfica&#10;&#10;Descripción generada automáticamente" id="0" name="image5.png"/>
+        <xdr:cNvPr descr="Interfaz de usuario gráfica&#10;&#10;Descripción generada automáticamente" id="0" name="image18.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1263,7 +1263,7 @@
     <xdr:ext cx="4714875" cy="3038475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Interfaz de usuario gráfica, Sitio web&#10;&#10;Descripción generada automáticamente" id="0" name="image1.png"/>
+        <xdr:cNvPr descr="Interfaz de usuario gráfica, Sitio web&#10;&#10;Descripción generada automáticamente" id="0" name="image13.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1291,7 +1291,7 @@
     <xdr:ext cx="4581525" cy="3067050"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image20.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1319,7 +1319,7 @@
     <xdr:ext cx="4800600" cy="3067050"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Interfaz de usuario gráfica, Calendario&#10;&#10;Descripción generada automáticamente" id="0" name="image4.png"/>
+        <xdr:cNvPr descr="Interfaz de usuario gráfica, Calendario&#10;&#10;Descripción generada automáticamente" id="0" name="image17.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1347,7 +1347,7 @@
     <xdr:ext cx="4772025" cy="3105150"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Interfaz de usuario gráfica&#10;&#10;Descripción generada automáticamente" id="0" name="image3.png"/>
+        <xdr:cNvPr descr="Interfaz de usuario gráfica&#10;&#10;Descripción generada automáticamente" id="0" name="image8.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1375,7 +1375,7 @@
     <xdr:ext cx="5067300" cy="3314700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image18.png"/>
+        <xdr:cNvPr id="0" name="image19.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1403,7 +1403,7 @@
     <xdr:ext cx="4914900" cy="3238500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image15.png"/>
+        <xdr:cNvPr id="0" name="image12.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1431,7 +1431,7 @@
     <xdr:ext cx="4848225" cy="3209925"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png"/>
+        <xdr:cNvPr id="0" name="image10.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1459,7 +1459,7 @@
     <xdr:ext cx="4714875" cy="3362325"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.jpg" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image6.jpg" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1487,7 +1487,7 @@
     <xdr:ext cx="4581525" cy="3362325"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image13.jpg" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image15.jpg" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1543,7 +1543,7 @@
     <xdr:ext cx="4772025" cy="3314700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.jpg" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image11.jpg" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1571,7 +1571,7 @@
     <xdr:ext cx="4514850" cy="3314700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image14.jpg" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image16.jpg" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1599,7 +1599,7 @@
     <xdr:ext cx="4714875" cy="3314700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image19.jpg" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image2.jpg" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1627,7 +1627,7 @@
     <xdr:ext cx="4772025" cy="3362325"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.jpg" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image5.jpg" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1655,7 +1655,7 @@
     <xdr:ext cx="4514850" cy="3238500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image16.jpg" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image21.jpg" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1683,7 +1683,7 @@
     <xdr:ext cx="4848225" cy="3495675"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image10.jpg" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image14.jpg" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1711,7 +1711,7 @@
     <xdr:ext cx="4514850" cy="3495675"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image20.jpg" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image1.jpg" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1731,15 +1731,43 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5838825" cy="4152900"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image4.jpg" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>866775</xdr:colOff>
+      <xdr:colOff>876300</xdr:colOff>
       <xdr:row>126</xdr:row>
       <xdr:rowOff>-200025</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4914900" cy="3495675"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.jpg" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image3.jpg" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4574,7 +4602,7 @@
       <c r="C28" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="7" t="s">
         <v>121</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -4585,13 +4613,13 @@
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="7" t="s">
         <v>124</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="8" t="s">
         <v>121</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -4602,7 +4630,7 @@
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="C30" s="8"/>
+      <c r="C30" s="9"/>
     </row>
     <row r="31" ht="15.75" customHeight="1"/>
     <row r="32" ht="15.75" customHeight="1">
@@ -4806,7 +4834,7 @@
       <c r="D47" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="7" t="s">
         <v>169</v>
       </c>
       <c r="F47" s="3" t="s">
@@ -4853,13 +4881,13 @@
       <c r="B52" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="5" t="s">
         <v>179</v>
       </c>
       <c r="F52" s="5" t="s">
@@ -4870,13 +4898,13 @@
       <c r="B53" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="5" t="s">
         <v>182</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="5" t="s">
         <v>184</v>
       </c>
       <c r="F53" s="5" t="s">
@@ -8418,7 +8446,7 @@
       <c r="D7" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="7" t="s">
         <v>269</v>
       </c>
     </row>
@@ -8429,7 +8457,7 @@
       <c r="C8" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="7" t="s">
         <v>272</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -8443,7 +8471,7 @@
       <c r="C9" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="7" t="s">
         <v>276</v>
       </c>
       <c r="E9" s="2" t="s">
